--- a/src/api/opcua/ua-cherkassy-azot_test2/test-data/acmYearTemplate2.xlsx
+++ b/src/api/opcua/ua-cherkassy-azot_test2/test-data/acmYearTemplate2.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19440" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="19440" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="ІНСТРУКЦІЇ" sheetId="1" r:id="rId1"/>
-    <sheet name="Дані_СНВВ" sheetId="4" r:id="rId2"/>
-    <sheet name="Результати" sheetId="5" r:id="rId3"/>
+    <sheet name="Instructions" sheetId="1" r:id="rId1"/>
+    <sheet name="Data_CNBB" sheetId="4" r:id="rId2"/>
+    <sheet name="Results" sheetId="5" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Дані_СНВВ!$B$19:$T$20</definedName>
-    <definedName name="_ftn1" localSheetId="2">Результати!#REF!</definedName>
-    <definedName name="_ftnref1" localSheetId="2">Результати!$C$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data_CNBB!$B$19:$T$20</definedName>
+    <definedName name="_ftn1" localSheetId="2">Results!#REF!</definedName>
+    <definedName name="_ftnref1" localSheetId="2">Results!$C$38</definedName>
     <definedName name="EstAnnEmiss" localSheetId="0">#REF!</definedName>
     <definedName name="EstAnnEmiss">#REF!</definedName>
     <definedName name="ListActivities">[1]Constants!$B$4:$B$31</definedName>
@@ -1374,7 +1374,7 @@
     <numFmt numFmtId="171" formatCode="0.00000"/>
     <numFmt numFmtId="172" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="173" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="174" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="70">
     <font>
@@ -3046,6 +3046,84 @@
     <xf numFmtId="0" fontId="66" fillId="10" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="48" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="48" fillId="8" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="43" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="43" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3064,76 +3142,79 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="65" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="69" fillId="9" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="69" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="9" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="48" fillId="8" borderId="2" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="48" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="48" fillId="8" borderId="2" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="48" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="8" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="10" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="60" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="44" fillId="5" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="44" fillId="5" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="10" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="48" fillId="5" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="10" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="44" fillId="5" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3142,122 +3223,41 @@
     <xf numFmtId="167" fontId="44" fillId="5" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="9" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="44" fillId="5" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="44" fillId="5" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="10" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="149" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="48" fillId="5" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="5" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="10" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="10" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="48" fillId="8" borderId="2" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="60" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="8" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="149" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="11" xfId="149" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="69" fillId="9" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="69" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="149" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="149" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="149" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="11" xfId="149" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="149" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="48" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="48" fillId="8" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="43" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="43" fillId="0" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="152">
@@ -3414,19 +3414,7 @@
     <cellStyle name="Обычный_%использ. уст. мощн.2005г." xfId="4"/>
     <cellStyle name="Обычный_Лист1" xfId="151"/>
   </cellStyles>
-  <dxfs count="187">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="42">
     <dxf>
       <font>
         <b/>
@@ -3461,37 +3449,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -3502,39 +3459,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -4077,1314 +4001,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF006600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF006600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF006600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF006600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF006600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF006600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
@@ -5418,749 +4034,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF006600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF006600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF006600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -7458,7 +5331,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH136"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:L10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7470,75 +5345,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="12.75"/>
-    <row r="2" spans="1:12" ht="44.25" customHeight="1">
+    <row r="2" spans="1:12" customFormat="1" ht="44.25" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-    </row>
-    <row r="3" spans="1:12" ht="39" customHeight="1">
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+    </row>
+    <row r="3" spans="1:12" customFormat="1" ht="39" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="136"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="134"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A4" s="33">
         <v>2</v>
       </c>
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="138"/>
-      <c r="D4" s="139" t="s">
+      <c r="C4" s="136"/>
+      <c r="D4" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="141"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="139"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="27.75" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="152" t="s">
+      <c r="B5" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="153"/>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="153"/>
-      <c r="K5" s="153"/>
-      <c r="L5" s="154"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="152"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A6" s="84"/>
@@ -7573,50 +5448,50 @@
       <c r="B8" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="150" t="s">
+      <c r="C8" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="150"/>
-      <c r="E8" s="150"/>
-      <c r="F8" s="150"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="150"/>
-      <c r="I8" s="150"/>
-      <c r="J8" s="150"/>
-      <c r="K8" s="150"/>
-      <c r="L8" s="150"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="148"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="148"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="30.75" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="80"/>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="149" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="151"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="151"/>
-      <c r="H9" s="151"/>
-      <c r="I9" s="151"/>
-      <c r="J9" s="151"/>
-      <c r="K9" s="151"/>
-      <c r="L9" s="151"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="149"/>
+      <c r="J9" s="149"/>
+      <c r="K9" s="149"/>
+      <c r="L9" s="149"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="80"/>
-      <c r="C10" s="151" t="s">
+      <c r="C10" s="149" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="151"/>
-      <c r="E10" s="151"/>
-      <c r="F10" s="151"/>
-      <c r="G10" s="151"/>
-      <c r="H10" s="151"/>
-      <c r="I10" s="151"/>
-      <c r="J10" s="151"/>
-      <c r="K10" s="151"/>
-      <c r="L10" s="151"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="149"/>
+      <c r="J10" s="149"/>
+      <c r="K10" s="149"/>
+      <c r="L10" s="149"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="12.75">
       <c r="A11" s="3"/>
@@ -7636,33 +5511,33 @@
       <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="138"/>
-      <c r="D12" s="147" t="s">
+      <c r="C12" s="136"/>
+      <c r="D12" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="148"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="148"/>
-      <c r="K12" s="148"/>
-      <c r="L12" s="149"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="146"/>
+      <c r="L12" s="147"/>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="142"/>
-      <c r="C13" s="143"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="146"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="144"/>
       <c r="K13" s="81"/>
       <c r="L13" s="81"/>
     </row>
@@ -7670,131 +5545,131 @@
       <c r="A14" s="2">
         <v>4</v>
       </c>
-      <c r="B14" s="129" t="s">
+      <c r="B14" s="155" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="131"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="156"/>
+      <c r="L14" s="157"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="42" customHeight="1">
       <c r="A15" s="2"/>
-      <c r="B15" s="132" t="s">
+      <c r="B15" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="132"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="132"/>
-      <c r="H15" s="132"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="132"/>
-      <c r="K15" s="132"/>
-      <c r="L15" s="132"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="158"/>
+      <c r="K15" s="158"/>
+      <c r="L15" s="158"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="2">
         <v>5</v>
       </c>
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="133"/>
-      <c r="K16" s="133"/>
-      <c r="L16" s="133"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="131"/>
+      <c r="L16" s="131"/>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="128"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="154"/>
+      <c r="K17" s="154"/>
+      <c r="L17" s="154"/>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="127" t="s">
+      <c r="D18" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="128"/>
-      <c r="L18" s="128"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="154"/>
+      <c r="K18" s="154"/>
+      <c r="L18" s="154"/>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="127" t="s">
+      <c r="D19" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="128"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="154"/>
+      <c r="K19" s="154"/>
+      <c r="L19" s="154"/>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="128" t="s">
+      <c r="D20" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="128"/>
-      <c r="K20" s="128"/>
-      <c r="L20" s="128"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="154"/>
+      <c r="K20" s="154"/>
+      <c r="L20" s="154"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="128" t="s">
+      <c r="D21" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="128"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="128"/>
-      <c r="K21" s="128"/>
-      <c r="L21" s="128"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="154"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="154"/>
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="3"/>
@@ -8332,239 +6207,248 @@
       <c r="K59"/>
       <c r="L59"/>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" customFormat="1">
       <c r="A60" s="2"/>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" customFormat="1">
       <c r="A61" s="2"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" customFormat="1">
       <c r="A62" s="2"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" customFormat="1">
       <c r="A63" s="2"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" customFormat="1">
       <c r="A64" s="2"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" customFormat="1">
       <c r="A65" s="2"/>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" customFormat="1">
       <c r="A66" s="2"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" customFormat="1">
       <c r="A67" s="2"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" customFormat="1">
       <c r="A68" s="2"/>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" customFormat="1">
       <c r="A69" s="2"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" customFormat="1">
       <c r="A70" s="2"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" customFormat="1">
       <c r="A71" s="2"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" customFormat="1">
       <c r="A72" s="2"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" customFormat="1">
       <c r="A73" s="2"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" customFormat="1">
       <c r="A74" s="2"/>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" customFormat="1">
       <c r="A75" s="2"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" customFormat="1">
       <c r="A76" s="2"/>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" customFormat="1">
       <c r="A77" s="2"/>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" customFormat="1">
       <c r="A78" s="2"/>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" customFormat="1">
       <c r="A79" s="2"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" customFormat="1">
       <c r="A80" s="2"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" customFormat="1">
       <c r="A81" s="2"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" customFormat="1">
       <c r="A82" s="2"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" customFormat="1">
       <c r="A83" s="2"/>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" customFormat="1">
       <c r="A84" s="2"/>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" customFormat="1">
       <c r="A85" s="2"/>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" customFormat="1">
       <c r="A86" s="2"/>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" customFormat="1">
       <c r="A87" s="2"/>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" customFormat="1">
       <c r="A88" s="2"/>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" customFormat="1">
       <c r="A89" s="2"/>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" customFormat="1">
       <c r="A90" s="2"/>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" customFormat="1">
       <c r="A91" s="2"/>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" customFormat="1">
       <c r="A92" s="2"/>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" customFormat="1">
       <c r="A93" s="2"/>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" customFormat="1">
       <c r="A94" s="2"/>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" customFormat="1">
       <c r="A95" s="2"/>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" customFormat="1">
       <c r="A96" s="2"/>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" customFormat="1">
       <c r="A97" s="2"/>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" customFormat="1">
       <c r="A98" s="2"/>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" customFormat="1">
       <c r="A99" s="2"/>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" customFormat="1">
       <c r="A100" s="2"/>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" customFormat="1">
       <c r="A101" s="2"/>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" customFormat="1">
       <c r="A102" s="2"/>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" customFormat="1">
       <c r="A103" s="2"/>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" customFormat="1">
       <c r="A104" s="2"/>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" customFormat="1">
       <c r="A105" s="2"/>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" customFormat="1">
       <c r="A106" s="2"/>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" customFormat="1">
       <c r="A107" s="2"/>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" customFormat="1">
       <c r="A108" s="2"/>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" customFormat="1">
       <c r="A109" s="2"/>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" customFormat="1">
       <c r="A110" s="2"/>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" customFormat="1">
       <c r="A111" s="2"/>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" customFormat="1">
       <c r="A112" s="2"/>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" customFormat="1">
       <c r="A113" s="2"/>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" customFormat="1">
       <c r="A114" s="2"/>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" customFormat="1">
       <c r="A115" s="2"/>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" customFormat="1">
       <c r="A116" s="2"/>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" customFormat="1">
       <c r="A117" s="2"/>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" customFormat="1">
       <c r="A118" s="2"/>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" customFormat="1">
       <c r="A119" s="2"/>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" customFormat="1">
       <c r="A120" s="2"/>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" customFormat="1">
       <c r="A121" s="2"/>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" customFormat="1">
       <c r="A122" s="2"/>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" customFormat="1">
       <c r="A123" s="2"/>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" customFormat="1">
       <c r="A124" s="2"/>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" customFormat="1">
       <c r="A125" s="2"/>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" customFormat="1">
       <c r="A126" s="2"/>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" customFormat="1">
       <c r="A127" s="2"/>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" customFormat="1">
       <c r="A128" s="2"/>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" customFormat="1">
       <c r="A129" s="2"/>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" customFormat="1">
       <c r="A130" s="2"/>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" customFormat="1">
       <c r="A131" s="2"/>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" customFormat="1">
       <c r="A132" s="2"/>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" customFormat="1">
       <c r="A133" s="2"/>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" customFormat="1">
       <c r="A134" s="2"/>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" customFormat="1">
       <c r="A135" s="2"/>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" customFormat="1">
       <c r="A136" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="D18:L18"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="B4:C4"/>
@@ -8577,18 +6461,9 @@
     <mergeCell ref="C9:L9"/>
     <mergeCell ref="C10:L10"/>
     <mergeCell ref="B5:L5"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="D18:L18"/>
   </mergeCells>
   <conditionalFormatting sqref="C22">
-    <cfRule type="cellIs" dxfId="179" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8606,7 +6481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="19" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
@@ -8639,17 +6514,17 @@
   <sheetData>
     <row r="1" spans="1:20" ht="19.5" customHeight="1">
       <c r="A1" s="123"/>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="169" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="175" t="s">
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="170" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="175"/>
+      <c r="H1" s="170"/>
       <c r="I1" s="112"/>
       <c r="J1" s="112"/>
       <c r="K1" s="112"/>
@@ -8660,28 +6535,28 @@
       </c>
       <c r="O1" s="173"/>
       <c r="P1" s="173"/>
-      <c r="Q1" s="171" t="s">
+      <c r="Q1" s="172" t="s">
         <v>93</v>
       </c>
-      <c r="R1" s="171"/>
-      <c r="S1" s="171" t="s">
+      <c r="R1" s="172"/>
+      <c r="S1" s="172" t="s">
         <v>92</v>
       </c>
-      <c r="T1" s="171"/>
+      <c r="T1" s="172"/>
     </row>
     <row r="2" spans="1:20" ht="19.5" customHeight="1">
       <c r="A2" s="123"/>
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="176" t="s">
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="171" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="176"/>
+      <c r="H2" s="171"/>
       <c r="I2" s="114"/>
       <c r="J2" s="114"/>
       <c r="K2" s="114"/>
@@ -8692,45 +6567,45 @@
       <c r="P2" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="Q2" s="172">
+      <c r="Q2" s="163">
         <v>0.93520000000000003</v>
       </c>
-      <c r="R2" s="172"/>
-      <c r="S2" s="172">
+      <c r="R2" s="163"/>
+      <c r="S2" s="163">
         <v>1.1951000000000001</v>
       </c>
-      <c r="T2" s="172"/>
+      <c r="T2" s="163"/>
     </row>
     <row r="3" spans="1:20" ht="19.5" customHeight="1">
       <c r="A3" s="123"/>
-      <c r="B3" s="174" t="s">
+      <c r="B3" s="169" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="175" t="s">
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="170" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
       <c r="M3" s="94"/>
       <c r="N3" s="115"/>
       <c r="P3" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="Q3" s="172">
+      <c r="Q3" s="163">
         <v>0</v>
       </c>
-      <c r="R3" s="172"/>
-      <c r="S3" s="172">
+      <c r="R3" s="163"/>
+      <c r="S3" s="163">
         <v>0</v>
       </c>
-      <c r="T3" s="172"/>
+      <c r="T3" s="163"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="116"/>
@@ -8756,13 +6631,13 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1">
       <c r="A5" s="116"/>
-      <c r="B5" s="163" t="s">
+      <c r="B5" s="162" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
       <c r="G5" s="115"/>
       <c r="H5" s="115"/>
       <c r="I5" s="115"/>
@@ -8773,58 +6648,58 @@
       </c>
       <c r="M5" s="115"/>
       <c r="N5" s="96"/>
-      <c r="O5" s="179" t="s">
+      <c r="O5" s="165" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="180"/>
-      <c r="Q5" s="180"/>
-      <c r="R5" s="180"/>
-      <c r="S5" s="180"/>
-      <c r="T5" s="180"/>
+      <c r="P5" s="166"/>
+      <c r="Q5" s="166"/>
+      <c r="R5" s="166"/>
+      <c r="S5" s="166"/>
+      <c r="T5" s="166"/>
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1">
       <c r="A6" s="116"/>
       <c r="B6" s="120"/>
       <c r="C6" s="115"/>
       <c r="D6" s="115"/>
-      <c r="E6" s="181" t="s">
+      <c r="E6" s="167" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="181"/>
-      <c r="G6" s="181" t="s">
+      <c r="F6" s="167"/>
+      <c r="G6" s="167" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="181"/>
+      <c r="H6" s="167"/>
       <c r="I6" s="115"/>
       <c r="J6" s="115"/>
       <c r="K6" s="115"/>
       <c r="L6" s="115"/>
       <c r="M6" s="115"/>
       <c r="N6" s="96"/>
-      <c r="O6" s="179" t="s">
+      <c r="O6" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="180"/>
-      <c r="Q6" s="180"/>
-      <c r="R6" s="180"/>
-      <c r="S6" s="180"/>
-      <c r="T6" s="180"/>
+      <c r="P6" s="166"/>
+      <c r="Q6" s="166"/>
+      <c r="R6" s="166"/>
+      <c r="S6" s="166"/>
+      <c r="T6" s="166"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
       <c r="A7" s="116"/>
       <c r="B7" s="120"/>
       <c r="C7" s="115"/>
       <c r="D7" s="115"/>
-      <c r="E7" s="155">
+      <c r="E7" s="168">
         <f>SUM(H20:H8800)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155">
+      <c r="F7" s="168"/>
+      <c r="G7" s="168">
         <f>SUM(J20:J8800)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="155"/>
+      <c r="H7" s="168"/>
       <c r="I7" s="115"/>
       <c r="J7" s="115"/>
       <c r="K7" s="115"/>
@@ -8833,14 +6708,14 @@
       <c r="N7" s="96">
         <v>1</v>
       </c>
-      <c r="O7" s="177" t="s">
+      <c r="O7" s="160" t="s">
         <v>60</v>
       </c>
-      <c r="P7" s="178"/>
-      <c r="Q7" s="178"/>
-      <c r="R7" s="178"/>
-      <c r="S7" s="178"/>
-      <c r="T7" s="178"/>
+      <c r="P7" s="161"/>
+      <c r="Q7" s="161"/>
+      <c r="R7" s="161"/>
+      <c r="S7" s="161"/>
+      <c r="T7" s="161"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="116"/>
@@ -8866,50 +6741,50 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="116"/>
-      <c r="B9" s="163" t="s">
+      <c r="B9" s="162" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="162"/>
       <c r="G9" s="121"/>
       <c r="H9" s="115"/>
       <c r="I9" s="117"/>
-      <c r="J9" s="163" t="s">
+      <c r="J9" s="162" t="s">
         <v>94</v>
       </c>
-      <c r="K9" s="163"/>
-      <c r="L9" s="163"/>
+      <c r="K9" s="162"/>
+      <c r="L9" s="162"/>
       <c r="M9" s="115"/>
-      <c r="N9" s="163" t="s">
+      <c r="N9" s="162" t="s">
         <v>88</v>
       </c>
-      <c r="O9" s="163"/>
-      <c r="P9" s="163"/>
-      <c r="Q9" s="163"/>
-      <c r="R9" s="163"/>
-      <c r="S9" s="163"/>
-      <c r="T9" s="163"/>
+      <c r="O9" s="162"/>
+      <c r="P9" s="162"/>
+      <c r="Q9" s="162"/>
+      <c r="R9" s="162"/>
+      <c r="S9" s="162"/>
+      <c r="T9" s="162"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="116"/>
       <c r="B10" s="120"/>
       <c r="C10" s="115"/>
       <c r="D10" s="115"/>
-      <c r="E10" s="169" t="s">
+      <c r="E10" s="159" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="169"/>
-      <c r="G10" s="166" t="s">
+      <c r="F10" s="159"/>
+      <c r="G10" s="180" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="166"/>
+      <c r="H10" s="180"/>
       <c r="I10" s="117"/>
-      <c r="J10" s="169" t="s">
+      <c r="J10" s="159" t="s">
         <v>80</v>
       </c>
-      <c r="K10" s="169"/>
+      <c r="K10" s="159"/>
       <c r="L10" s="126" t="s">
         <v>95</v>
       </c>
@@ -8941,22 +6816,22 @@
       <c r="B11" s="120"/>
       <c r="C11" s="115"/>
       <c r="D11" s="115"/>
-      <c r="E11" s="156">
+      <c r="E11" s="164">
         <f>COUNTIF(N20:N8800,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156">
+      <c r="F11" s="164"/>
+      <c r="G11" s="164">
         <f>COUNTIF(Q20:Q8800,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="H11" s="156"/>
+      <c r="H11" s="164"/>
       <c r="I11" s="115"/>
-      <c r="J11" s="195">
+      <c r="J11" s="128">
         <v>0</v>
       </c>
-      <c r="K11" s="194"/>
-      <c r="L11" s="194">
+      <c r="K11" s="127"/>
+      <c r="L11" s="127">
         <f>COUNTIF(L20:L8800,"агрегати не працюють")</f>
         <v>0</v>
       </c>
@@ -9014,13 +6889,13 @@
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1">
       <c r="A13" s="116"/>
-      <c r="B13" s="163" t="s">
+      <c r="B13" s="162" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="163"/>
-      <c r="D13" s="163"/>
-      <c r="E13" s="163"/>
-      <c r="F13" s="163"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="162"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
       <c r="G13" s="122"/>
       <c r="H13" s="122"/>
       <c r="I13" s="122"/>
@@ -9028,34 +6903,34 @@
       <c r="K13" s="115"/>
       <c r="L13" s="115"/>
       <c r="M13" s="115"/>
-      <c r="N13" s="163" t="s">
+      <c r="N13" s="162" t="s">
         <v>91</v>
       </c>
-      <c r="O13" s="163"/>
-      <c r="P13" s="163"/>
-      <c r="Q13" s="163"/>
-      <c r="R13" s="163"/>
-      <c r="S13" s="163"/>
-      <c r="T13" s="163"/>
+      <c r="O13" s="162"/>
+      <c r="P13" s="162"/>
+      <c r="Q13" s="162"/>
+      <c r="R13" s="162"/>
+      <c r="S13" s="162"/>
+      <c r="T13" s="162"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="116"/>
       <c r="B14" s="120"/>
       <c r="C14" s="115"/>
       <c r="D14" s="115"/>
-      <c r="E14" s="169" t="s">
+      <c r="E14" s="159" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="169"/>
-      <c r="G14" s="170" t="s">
+      <c r="F14" s="159"/>
+      <c r="G14" s="183" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="170"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="169" t="s">
+      <c r="H14" s="183"/>
+      <c r="I14" s="183"/>
+      <c r="J14" s="159" t="s">
         <v>84</v>
       </c>
-      <c r="K14" s="169"/>
+      <c r="K14" s="159"/>
       <c r="L14" s="109" t="s">
         <v>85</v>
       </c>
@@ -9087,22 +6962,22 @@
       <c r="B15" s="120"/>
       <c r="C15" s="115"/>
       <c r="D15" s="115"/>
-      <c r="E15" s="156">
+      <c r="E15" s="164">
         <f>COUNTIF(E20:E8800,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="F15" s="156"/>
-      <c r="G15" s="156">
+      <c r="F15" s="164"/>
+      <c r="G15" s="164">
         <f>COUNTIF(G20:G8800,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="H15" s="156"/>
-      <c r="I15" s="156"/>
-      <c r="J15" s="156">
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="164">
         <f>COUNTIF(I20:I8800,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="K15" s="156"/>
+      <c r="K15" s="164"/>
       <c r="L15" s="99">
         <f>COUNTIF(K20:K8800,"&gt;0")</f>
         <v>0</v>
@@ -9149,67 +7024,67 @@
     </row>
     <row r="17" spans="1:20" ht="15.75" customHeight="1">
       <c r="A17" s="116"/>
-      <c r="B17" s="157" t="s">
+      <c r="B17" s="184" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="157" t="s">
+      <c r="C17" s="184" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="159" t="s">
+      <c r="D17" s="176" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="159" t="s">
+      <c r="E17" s="176" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="159" t="s">
+      <c r="F17" s="176" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="159" t="s">
+      <c r="G17" s="176" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="164" t="s">
+      <c r="H17" s="178" t="s">
         <v>75</v>
       </c>
-      <c r="I17" s="159" t="s">
+      <c r="I17" s="176" t="s">
         <v>78</v>
       </c>
-      <c r="J17" s="164" t="s">
+      <c r="J17" s="178" t="s">
         <v>77</v>
       </c>
-      <c r="K17" s="159" t="s">
+      <c r="K17" s="176" t="s">
         <v>78</v>
       </c>
-      <c r="L17" s="161" t="s">
+      <c r="L17" s="174" t="s">
         <v>76</v>
       </c>
       <c r="M17" s="124"/>
-      <c r="N17" s="168" t="s">
+      <c r="N17" s="182" t="s">
         <v>66</v>
       </c>
-      <c r="O17" s="168"/>
-      <c r="P17" s="168"/>
-      <c r="Q17" s="167" t="s">
+      <c r="O17" s="182"/>
+      <c r="P17" s="182"/>
+      <c r="Q17" s="181" t="s">
         <v>67</v>
       </c>
-      <c r="R17" s="167"/>
-      <c r="S17" s="167"/>
-      <c r="T17" s="161" t="s">
+      <c r="R17" s="181"/>
+      <c r="S17" s="181"/>
+      <c r="T17" s="174" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="96.75" customHeight="1">
       <c r="A18" s="116"/>
-      <c r="B18" s="158"/>
-      <c r="C18" s="158"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="165"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="165"/>
-      <c r="K18" s="160"/>
-      <c r="L18" s="162"/>
+      <c r="B18" s="185"/>
+      <c r="C18" s="185"/>
+      <c r="D18" s="177"/>
+      <c r="E18" s="177"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="179"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="179"/>
+      <c r="K18" s="177"/>
+      <c r="L18" s="175"/>
       <c r="M18" s="124"/>
       <c r="N18" s="89" t="s">
         <v>14</v>
@@ -9229,7 +7104,7 @@
       <c r="S18" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="T18" s="162"/>
+      <c r="T18" s="175"/>
     </row>
     <row r="19" spans="1:20" s="93" customFormat="1" ht="12.75">
       <c r="A19" s="102"/>
@@ -9291,10 +7166,10 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="125"/>
-      <c r="B20" s="197">
+      <c r="B20" s="130">
         <v>44562</v>
       </c>
-      <c r="C20" s="196">
+      <c r="C20" s="129">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D20" s="96"/>
@@ -9423,6 +7298,41 @@
   </sheetData>
   <autoFilter ref="B19:T20"/>
   <mergeCells count="51">
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="N9:T9"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="O7:T7"/>
     <mergeCell ref="E14:F14"/>
@@ -9439,224 +7349,189 @@
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="N9:T9"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
   </mergeCells>
   <conditionalFormatting sqref="L17">
-    <cfRule type="cellIs" dxfId="178" priority="14487" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="14487" stopIfTrue="1" operator="equal">
       <formula>"out"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="cellIs" dxfId="177" priority="14484" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="14484" stopIfTrue="1" operator="equal">
       <formula>"out"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17">
-    <cfRule type="duplicateValues" dxfId="176" priority="14274"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="14274"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="173" priority="14269" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="14269" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="containsText" dxfId="172" priority="9086" operator="containsText" text="чи роблять агрегати?">
+    <cfRule type="containsText" dxfId="36" priority="9086" operator="containsText" text="чи роблять агрегати?">
       <formula>NOT(ISERROR(SEARCH("чи роблять агрегати?",L20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="9087" operator="containsText" text="чи робить СНВВ?">
+    <cfRule type="containsText" dxfId="35" priority="9087" operator="containsText" text="чи робить СНВВ?">
       <formula>NOT(ISERROR(SEARCH("чи робить СНВВ?",L20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="14099" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="34" priority="14099" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",L20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="14100" operator="containsText" text="СНВВ не працює">
+    <cfRule type="containsText" dxfId="33" priority="14100" operator="containsText" text="СНВВ не працює">
       <formula>NOT(ISERROR(SEARCH("СНВВ не працює",L20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="14101" operator="containsText" text="агрегати не працюють">
+    <cfRule type="containsText" dxfId="32" priority="14101" operator="containsText" text="агрегати не працюють">
       <formula>NOT(ISERROR(SEARCH("агрегати не працюють",L20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="containsBlanks" dxfId="167" priority="9119">
+    <cfRule type="containsBlanks" dxfId="31" priority="9119">
       <formula>LEN(TRIM(D20))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsBlanks" dxfId="166" priority="9117">
+    <cfRule type="containsBlanks" dxfId="30" priority="9117">
       <formula>LEN(TRIM(F20))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="containsBlanks" dxfId="165" priority="9113">
+    <cfRule type="containsBlanks" dxfId="29" priority="9113">
       <formula>LEN(TRIM(H20))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="164" priority="9110" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="9110" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="9111" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="9111" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="containsBlanks" dxfId="162" priority="9102">
+    <cfRule type="containsBlanks" dxfId="26" priority="9102">
       <formula>LEN(TRIM(J20))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="cellIs" dxfId="161" priority="9100" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="9100" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="9101" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="9101" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="containsBlanks" dxfId="159" priority="14490">
+    <cfRule type="containsBlanks" dxfId="23" priority="14490">
       <formula>LEN(TRIM(E20))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="158" priority="14491" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="14491" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20:O20">
-    <cfRule type="containsBlanks" dxfId="157" priority="9067">
+    <cfRule type="containsBlanks" dxfId="21" priority="9067">
       <formula>LEN(TRIM(N20))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="14492" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="14492" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:T20">
-    <cfRule type="containsBlanks" dxfId="155" priority="9063">
+    <cfRule type="containsBlanks" dxfId="19" priority="9063">
       <formula>LEN(TRIM(P20))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="9064" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="9064" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="cellIs" dxfId="153" priority="1509" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="1509" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15 E15">
-    <cfRule type="cellIs" dxfId="152" priority="1511" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="1511" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" dxfId="151" priority="1510" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="1510" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsBlanks" dxfId="150" priority="1508">
+    <cfRule type="containsBlanks" dxfId="14" priority="1508">
       <formula>LEN(TRIM(E7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q3 S2:S3">
-    <cfRule type="containsBlanks" dxfId="149" priority="1507">
+    <cfRule type="containsBlanks" dxfId="13" priority="1507">
       <formula>LEN(TRIM(Q2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="containsBlanks" dxfId="148" priority="1506">
+    <cfRule type="containsBlanks" dxfId="12" priority="1506">
       <formula>LEN(TRIM(G7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="containsBlanks" dxfId="147" priority="1504">
+    <cfRule type="containsBlanks" dxfId="11" priority="1504">
       <formula>LEN(TRIM(N5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="containsBlanks" dxfId="146" priority="1502">
+    <cfRule type="containsBlanks" dxfId="10" priority="1502">
       <formula>LEN(TRIM(N6))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="1503" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="1503" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="containsBlanks" dxfId="144" priority="1500">
+    <cfRule type="containsBlanks" dxfId="8" priority="1500">
       <formula>LEN(TRIM(N7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="cellIs" dxfId="143" priority="1501" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="1501" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="containsBlanks" dxfId="140" priority="7">
+    <cfRule type="containsBlanks" dxfId="6" priority="7">
       <formula>LEN(TRIM(I20))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="cellIs" dxfId="139" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="containsBlanks" dxfId="138" priority="5">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
       <formula>LEN(TRIM(K20))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="cellIs" dxfId="137" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:K11">
-    <cfRule type="cellIs" dxfId="136" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="3" priority="1">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9669,7 +7544,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
@@ -10644,11 +8521,11 @@
       <c r="A2" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
       <c r="E2" s="106" t="s">
         <v>20</v>
       </c>
@@ -10666,9 +8543,9 @@
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
-      <c r="E3" s="29" t="e">
-        <f>Дані_СНВВ!P15/E5</f>
-        <v>#DIV/0!</v>
+      <c r="E3" s="29">
+        <f>IFERROR(Data_CNBB!P15/E5, 0)</f>
+        <v>0</v>
       </c>
       <c r="F3" s="34" t="s">
         <v>30</v>
@@ -10687,9 +8564,9 @@
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
-      <c r="E4" s="27" t="e">
-        <f>Дані_СНВВ!S15/E5</f>
-        <v>#DIV/0!</v>
+      <c r="E4" s="27">
+        <f>IFERROR(Data_CNBB!S15/E5, 0)</f>
+        <v>0</v>
       </c>
       <c r="F4" s="34" t="s">
         <v>31</v>
@@ -10703,13 +8580,13 @@
       <c r="A5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="193" t="s">
+      <c r="B5" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="193"/>
-      <c r="D5" s="193"/>
+      <c r="C5" s="189"/>
+      <c r="D5" s="189"/>
       <c r="E5" s="36">
-        <f>Дані_СНВВ!G7</f>
+        <f>Data_CNBB!G7</f>
         <v>0</v>
       </c>
       <c r="F5" s="34" t="s">
@@ -10724,13 +8601,13 @@
       <c r="A6" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="191" t="s">
+      <c r="B6" s="187" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="191"/>
-      <c r="D6" s="191"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="187"/>
       <c r="E6" s="36">
-        <f>Дані_СНВВ!$T$15/1000000000</f>
+        <f>Data_CNBB!$T$15/1000000000</f>
         <v>0</v>
       </c>
       <c r="F6" s="34" t="s">
@@ -10745,11 +8622,11 @@
       <c r="A7" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="191" t="s">
+      <c r="B7" s="187" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="191"/>
-      <c r="D7" s="191"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="187"/>
       <c r="E7" s="37">
         <f>E6*298</f>
         <v>0</v>
@@ -10766,14 +8643,14 @@
       <c r="A8" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="192" t="s">
+      <c r="B8" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="192"/>
-      <c r="D8" s="192"/>
-      <c r="E8" s="38" t="e">
-        <f>Дані_СНВВ!$T$15/1000000/E5</f>
-        <v>#DIV/0!</v>
+      <c r="C8" s="188"/>
+      <c r="D8" s="188"/>
+      <c r="E8" s="38">
+        <f>IFERROR(Data_CNBB!$T$15/1000000/E5, 0)</f>
+        <v>0</v>
       </c>
       <c r="F8" s="35" t="s">
         <v>34</v>
@@ -10858,12 +8735,12 @@
     <row r="16" spans="1:12" ht="15.75">
       <c r="A16" s="48"/>
       <c r="B16" s="54"/>
-      <c r="C16" s="183" t="s">
+      <c r="C16" s="190" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="183"/>
-      <c r="E16" s="183"/>
-      <c r="F16" s="184"/>
+      <c r="D16" s="190"/>
+      <c r="E16" s="190"/>
+      <c r="F16" s="191"/>
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" ht="18.75">
@@ -10871,12 +8748,12 @@
       <c r="B17" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="183" t="s">
+      <c r="C17" s="190" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="183"/>
-      <c r="E17" s="183"/>
-      <c r="F17" s="184"/>
+      <c r="D17" s="190"/>
+      <c r="E17" s="190"/>
+      <c r="F17" s="191"/>
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" ht="18.75">
@@ -10884,12 +8761,12 @@
       <c r="B18" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="183" t="s">
+      <c r="C18" s="190" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="183"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="184"/>
+      <c r="D18" s="190"/>
+      <c r="E18" s="190"/>
+      <c r="F18" s="191"/>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" ht="14.25">
@@ -10914,23 +8791,23 @@
       <c r="A21" s="55">
         <v>2</v>
       </c>
-      <c r="B21" s="187" t="s">
+      <c r="B21" s="192" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="188" t="s">
+      <c r="C21" s="193" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="188"/>
+      <c r="D21" s="193"/>
       <c r="E21" s="40"/>
       <c r="F21" s="49"/>
     </row>
     <row r="22" spans="1:7" ht="29.25" customHeight="1">
       <c r="A22" s="51"/>
-      <c r="B22" s="187"/>
-      <c r="C22" s="189" t="s">
+      <c r="B22" s="192"/>
+      <c r="C22" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="189"/>
+      <c r="D22" s="194"/>
       <c r="E22" s="40"/>
       <c r="F22" s="49"/>
     </row>
@@ -10955,48 +8832,48 @@
       <c r="B25" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="185" t="s">
+      <c r="C25" s="196" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="185"/>
-      <c r="E25" s="185"/>
-      <c r="F25" s="186"/>
+      <c r="D25" s="196"/>
+      <c r="E25" s="196"/>
+      <c r="F25" s="197"/>
     </row>
     <row r="26" spans="1:7" ht="18.75">
       <c r="A26" s="52"/>
       <c r="B26" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="183" t="s">
+      <c r="C26" s="190" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="183"/>
-      <c r="E26" s="183"/>
-      <c r="F26" s="184"/>
+      <c r="D26" s="190"/>
+      <c r="E26" s="190"/>
+      <c r="F26" s="191"/>
     </row>
     <row r="27" spans="1:7" ht="18.75">
       <c r="A27" s="52"/>
       <c r="B27" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="183" t="s">
+      <c r="C27" s="190" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="183"/>
-      <c r="E27" s="183"/>
-      <c r="F27" s="184"/>
+      <c r="D27" s="190"/>
+      <c r="E27" s="190"/>
+      <c r="F27" s="191"/>
     </row>
     <row r="28" spans="1:7" ht="15.75">
       <c r="A28" s="52"/>
       <c r="B28" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="183" t="s">
+      <c r="C28" s="190" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="183"/>
-      <c r="E28" s="183"/>
-      <c r="F28" s="184"/>
+      <c r="D28" s="190"/>
+      <c r="E28" s="190"/>
+      <c r="F28" s="191"/>
     </row>
     <row r="29" spans="1:7" ht="12.75">
       <c r="A29" s="52"/>
@@ -11026,10 +8903,10 @@
       <c r="A32" s="55">
         <v>3</v>
       </c>
-      <c r="B32" s="182" t="s">
+      <c r="B32" s="195" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="182"/>
+      <c r="C32" s="195"/>
       <c r="D32" s="44"/>
       <c r="E32" s="44"/>
       <c r="F32" s="53"/>
@@ -11063,36 +8940,36 @@
       <c r="B36" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="183" t="s">
+      <c r="C36" s="190" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="183"/>
-      <c r="E36" s="183"/>
-      <c r="F36" s="184"/>
+      <c r="D36" s="190"/>
+      <c r="E36" s="190"/>
+      <c r="F36" s="191"/>
     </row>
     <row r="37" spans="1:6" ht="18.75">
       <c r="A37" s="52"/>
       <c r="B37" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="183" t="s">
+      <c r="C37" s="190" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="183"/>
-      <c r="E37" s="183"/>
-      <c r="F37" s="184"/>
+      <c r="D37" s="190"/>
+      <c r="E37" s="190"/>
+      <c r="F37" s="191"/>
     </row>
     <row r="38" spans="1:6" ht="18.75">
       <c r="A38" s="52"/>
       <c r="B38" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="183" t="s">
+      <c r="C38" s="190" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="183"/>
-      <c r="E38" s="183"/>
-      <c r="F38" s="184"/>
+      <c r="D38" s="190"/>
+      <c r="E38" s="190"/>
+      <c r="F38" s="191"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1">
       <c r="A39" s="57"/>
@@ -11104,17 +8981,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="C37:F37"/>
@@ -11123,6 +8989,17 @@
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/api/opcua/ua-cherkassy-azot_test2/test-data/acmYearTemplate2.xlsx
+++ b/src/api/opcua/ua-cherkassy-azot_test2/test-data/acmYearTemplate2.xlsx
@@ -2779,12 +2779,63 @@
     <xf numFmtId="20" fontId="46" fillId="0" borderId="19" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -2794,12 +2845,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2818,134 +2863,104 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="61" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="9" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="49" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="7" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="49" fillId="8" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="49" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="49" fillId="8" borderId="19" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="50" fillId="4" borderId="21" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="50" fillId="4" borderId="43" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="43" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="43" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="9" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="49" fillId="8" borderId="19" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="50" fillId="4" borderId="21" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="50" fillId="4" borderId="43" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="49" fillId="4" borderId="19" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="49" fillId="4" borderId="44" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="8" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="49" fillId="8" borderId="19" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="22" fontId="42" fillId="7" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="9" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="50" fillId="4" borderId="21" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="50" fillId="4" borderId="43" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="43" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="49" fillId="4" borderId="19" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="49" fillId="4" borderId="44" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="7" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="49" fillId="8" borderId="19" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="50" fillId="4" borderId="21" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="50" fillId="4" borderId="43" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="43" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="4" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="9" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="9" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="49" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2965,12 +2980,6 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="28" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2979,15 +2988,6 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="49" fillId="8" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="49" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -3003,7 +3003,28 @@
     <cellStyle name="Обычный_%использ. уст. мощн.2005г." xfId="4"/>
     <cellStyle name="Обычный_Лист1" xfId="9"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="66">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3437,6 +3458,461 @@
         <extend val="0"/>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF006600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF006600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5" tint="-0.24994659260841701"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -4053,71 +4529,71 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
     </row>
     <row r="3" spans="1:12" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="124"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="141"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="126"/>
-      <c r="D4" s="127" t="s">
+      <c r="C4" s="129"/>
+      <c r="D4" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="129"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="144"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="130" t="s">
+      <c r="B5" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="132"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="146"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="147"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -4152,50 +4628,50 @@
       <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="120" t="s">
+      <c r="C8" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="120"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="138"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="133" t="s">
+      <c r="C9" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="133"/>
-      <c r="L9" s="133"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="133" t="s">
+      <c r="C10" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="133"/>
-      <c r="K10" s="133"/>
-      <c r="L10" s="133"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
@@ -4215,33 +4691,33 @@
       <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B12" s="125" t="s">
+      <c r="B12" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="126"/>
-      <c r="D12" s="134" t="s">
+      <c r="C12" s="129"/>
+      <c r="D12" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="135"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="135"/>
-      <c r="K12" s="135"/>
-      <c r="L12" s="136"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="131"/>
+      <c r="L12" s="132"/>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="137"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="141"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="137"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
@@ -4249,131 +4725,131 @@
       <c r="A14" s="2">
         <v>4</v>
       </c>
-      <c r="B14" s="144" t="s">
+      <c r="B14" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="145"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="145"/>
-      <c r="K14" s="145"/>
-      <c r="L14" s="146"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="124"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="147" t="s">
+      <c r="B15" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="147"/>
-      <c r="K15" s="147"/>
-      <c r="L15" s="147"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="125"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>5</v>
       </c>
-      <c r="B16" s="121" t="s">
+      <c r="B16" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="121"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="121"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="126"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="126"/>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="143"/>
-      <c r="K17" s="143"/>
-      <c r="L17" s="143"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="121"/>
+      <c r="J17" s="121"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="142" t="s">
+      <c r="D18" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="143"/>
-      <c r="K18" s="143"/>
-      <c r="L18" s="143"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="121"/>
+      <c r="K18" s="121"/>
+      <c r="L18" s="121"/>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="142" t="s">
+      <c r="D19" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="143"/>
-      <c r="K19" s="143"/>
-      <c r="L19" s="143"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="121"/>
+      <c r="K19" s="121"/>
+      <c r="L19" s="121"/>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="18"/>
-      <c r="D20" s="143" t="s">
+      <c r="D20" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="143"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="121"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="143" t="s">
+      <c r="D21" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="143"/>
-      <c r="J21" s="143"/>
-      <c r="K21" s="143"/>
-      <c r="L21" s="143"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="121"/>
+      <c r="K21" s="121"/>
+      <c r="L21" s="121"/>
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
@@ -5144,6 +5620,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="D19:L19"/>
     <mergeCell ref="D20:L20"/>
     <mergeCell ref="D21:L21"/>
@@ -5153,21 +5641,9 @@
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="I17:L17"/>
     <mergeCell ref="D18:L18"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="B5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="C22">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5185,7 +5661,7 @@
   <dimension ref="B1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:L19"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5210,48 +5686,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="165" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="151" t="s">
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="166" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="151"/>
+      <c r="H1" s="166"/>
       <c r="I1" s="88"/>
       <c r="J1" s="88"/>
       <c r="K1" s="88"/>
       <c r="L1" s="89"/>
       <c r="M1" s="89"/>
-      <c r="N1" s="152" t="s">
+      <c r="N1" s="176" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="152"/>
-      <c r="P1" s="152"/>
-      <c r="Q1" s="153" t="s">
+      <c r="O1" s="176"/>
+      <c r="P1" s="176"/>
+      <c r="Q1" s="177" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="153"/>
-      <c r="S1" s="153" t="s">
+      <c r="R1" s="177"/>
+      <c r="S1" s="177" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="153"/>
+      <c r="T1" s="177"/>
     </row>
     <row r="2" spans="2:20" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="165" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="149" t="s">
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="149"/>
+      <c r="H2" s="175"/>
       <c r="I2" s="90"/>
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
@@ -5262,54 +5738,54 @@
       <c r="P2" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="Q2" s="150">
+      <c r="Q2" s="167">
         <v>0.93520000000000003</v>
       </c>
-      <c r="R2" s="150"/>
-      <c r="S2" s="150">
+      <c r="R2" s="167"/>
+      <c r="S2" s="167">
         <v>1.1951000000000001</v>
       </c>
-      <c r="T2" s="150"/>
+      <c r="T2" s="167"/>
     </row>
     <row r="3" spans="2:20" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="165" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="151" t="s">
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="166" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
       <c r="M3" s="93"/>
       <c r="N3" s="91"/>
       <c r="O3" s="94"/>
       <c r="P3" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="Q3" s="150">
+      <c r="Q3" s="167">
         <v>0</v>
       </c>
-      <c r="R3" s="150"/>
-      <c r="S3" s="150">
+      <c r="R3" s="167"/>
+      <c r="S3" s="167">
         <v>0</v>
       </c>
-      <c r="T3" s="150"/>
+      <c r="T3" s="167"/>
     </row>
     <row r="5" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="160" t="s">
+      <c r="B5" s="151" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
       <c r="G5" s="91"/>
       <c r="H5" s="91"/>
       <c r="I5" s="91"/>
@@ -5320,56 +5796,56 @@
       </c>
       <c r="M5" s="91"/>
       <c r="N5" s="106"/>
-      <c r="O5" s="161" t="s">
+      <c r="O5" s="172" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="162"/>
-      <c r="Q5" s="162"/>
-      <c r="R5" s="162"/>
-      <c r="S5" s="162"/>
-      <c r="T5" s="162"/>
+      <c r="P5" s="173"/>
+      <c r="Q5" s="173"/>
+      <c r="R5" s="173"/>
+      <c r="S5" s="173"/>
+      <c r="T5" s="173"/>
     </row>
     <row r="6" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="109"/>
       <c r="C6" s="91"/>
       <c r="D6" s="91"/>
-      <c r="E6" s="163" t="s">
+      <c r="E6" s="174" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163" t="s">
+      <c r="F6" s="174"/>
+      <c r="G6" s="174" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="163"/>
+      <c r="H6" s="174"/>
       <c r="I6" s="91"/>
       <c r="J6" s="91"/>
       <c r="K6" s="91"/>
       <c r="L6" s="91"/>
       <c r="M6" s="91"/>
       <c r="N6" s="106"/>
-      <c r="O6" s="161" t="s">
+      <c r="O6" s="172" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="162"/>
-      <c r="Q6" s="162"/>
-      <c r="R6" s="162"/>
-      <c r="S6" s="162"/>
-      <c r="T6" s="162"/>
+      <c r="P6" s="173"/>
+      <c r="Q6" s="173"/>
+      <c r="R6" s="173"/>
+      <c r="S6" s="173"/>
+      <c r="T6" s="173"/>
     </row>
     <row r="7" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="109"/>
       <c r="C7" s="91"/>
       <c r="D7" s="91"/>
-      <c r="E7" s="164">
+      <c r="E7" s="154">
         <f>SUM(H20:H8798)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="164"/>
-      <c r="G7" s="164">
+      <c r="F7" s="154"/>
+      <c r="G7" s="154">
         <f>SUM(J20:J8798)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="164"/>
+      <c r="H7" s="154"/>
       <c r="I7" s="91"/>
       <c r="J7" s="91"/>
       <c r="K7" s="91"/>
@@ -5378,14 +5854,14 @@
       <c r="N7" s="106">
         <v>1</v>
       </c>
-      <c r="O7" s="165" t="s">
+      <c r="O7" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="P7" s="166"/>
-      <c r="Q7" s="166"/>
-      <c r="R7" s="166"/>
-      <c r="S7" s="166"/>
-      <c r="T7" s="166"/>
+      <c r="P7" s="156"/>
+      <c r="Q7" s="156"/>
+      <c r="R7" s="156"/>
+      <c r="S7" s="156"/>
+      <c r="T7" s="156"/>
     </row>
     <row r="8" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="109"/>
@@ -5409,49 +5885,49 @@
       <c r="T8" s="110"/>
     </row>
     <row r="9" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="160" t="s">
+      <c r="B9" s="151" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
       <c r="G9" s="111"/>
       <c r="H9" s="91"/>
       <c r="I9" s="110"/>
-      <c r="J9" s="160" t="s">
+      <c r="J9" s="151" t="s">
         <v>89</v>
       </c>
-      <c r="K9" s="160"/>
-      <c r="L9" s="160"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="151"/>
       <c r="M9" s="91"/>
-      <c r="N9" s="160" t="s">
+      <c r="N9" s="151" t="s">
         <v>90</v>
       </c>
-      <c r="O9" s="160"/>
-      <c r="P9" s="160"/>
-      <c r="Q9" s="160"/>
-      <c r="R9" s="160"/>
-      <c r="S9" s="160"/>
-      <c r="T9" s="160"/>
+      <c r="O9" s="151"/>
+      <c r="P9" s="151"/>
+      <c r="Q9" s="151"/>
+      <c r="R9" s="151"/>
+      <c r="S9" s="151"/>
+      <c r="T9" s="151"/>
     </row>
     <row r="10" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="109"/>
       <c r="C10" s="91"/>
       <c r="D10" s="91"/>
-      <c r="E10" s="172" t="s">
+      <c r="E10" s="148" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="172"/>
-      <c r="G10" s="174" t="s">
+      <c r="F10" s="148"/>
+      <c r="G10" s="149" t="s">
         <v>92</v>
       </c>
-      <c r="H10" s="174"/>
+      <c r="H10" s="149"/>
       <c r="I10" s="110"/>
-      <c r="J10" s="172" t="s">
+      <c r="J10" s="148" t="s">
         <v>86</v>
       </c>
-      <c r="K10" s="172"/>
+      <c r="K10" s="148"/>
       <c r="L10" s="112" t="s">
         <v>93</v>
       </c>
@@ -5482,22 +5958,22 @@
       <c r="B11" s="109"/>
       <c r="C11" s="91"/>
       <c r="D11" s="91"/>
-      <c r="E11" s="175">
+      <c r="E11" s="150">
         <f>COUNTIF(N20:N8798,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="F11" s="175"/>
-      <c r="G11" s="175">
+      <c r="F11" s="150"/>
+      <c r="G11" s="150">
         <f>COUNTIF(Q20:Q8798,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="H11" s="175"/>
+      <c r="H11" s="150"/>
       <c r="I11" s="91"/>
-      <c r="J11" s="188">
+      <c r="J11" s="152">
         <f>COUNTIF($L20:$L8800,"СНВВ не працює")</f>
         <v>0</v>
       </c>
-      <c r="K11" s="189"/>
+      <c r="K11" s="153"/>
       <c r="L11" s="114">
         <f>COUNTIF($L20:$L8800,"агрегати не працюють")</f>
         <v>0</v>
@@ -5554,13 +6030,13 @@
       <c r="T12" s="110"/>
     </row>
     <row r="13" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="160" t="s">
+      <c r="B13" s="151" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="160"/>
-      <c r="D13" s="160"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="160"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
       <c r="G13" s="116"/>
       <c r="H13" s="116"/>
       <c r="I13" s="116"/>
@@ -5568,33 +6044,33 @@
       <c r="K13" s="91"/>
       <c r="L13" s="91"/>
       <c r="M13" s="91"/>
-      <c r="N13" s="160" t="s">
+      <c r="N13" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="160"/>
-      <c r="P13" s="160"/>
-      <c r="Q13" s="160"/>
-      <c r="R13" s="160"/>
-      <c r="S13" s="160"/>
-      <c r="T13" s="160"/>
+      <c r="O13" s="151"/>
+      <c r="P13" s="151"/>
+      <c r="Q13" s="151"/>
+      <c r="R13" s="151"/>
+      <c r="S13" s="151"/>
+      <c r="T13" s="151"/>
     </row>
     <row r="14" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="109"/>
       <c r="C14" s="91"/>
       <c r="D14" s="91"/>
-      <c r="E14" s="172" t="s">
+      <c r="E14" s="148" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="172"/>
-      <c r="G14" s="173" t="s">
+      <c r="F14" s="148"/>
+      <c r="G14" s="164" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="173"/>
-      <c r="I14" s="173"/>
-      <c r="J14" s="172" t="s">
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="148" t="s">
         <v>96</v>
       </c>
-      <c r="K14" s="172"/>
+      <c r="K14" s="148"/>
       <c r="L14" s="117" t="s">
         <v>97</v>
       </c>
@@ -5625,22 +6101,22 @@
       <c r="B15" s="109"/>
       <c r="C15" s="91"/>
       <c r="D15" s="91"/>
-      <c r="E15" s="175">
+      <c r="E15" s="150">
         <f>COUNTIF(E20:E8798,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="F15" s="175"/>
-      <c r="G15" s="175">
+      <c r="F15" s="150"/>
+      <c r="G15" s="150">
         <f>COUNTIF(G20:G8798,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="H15" s="175"/>
-      <c r="I15" s="175"/>
-      <c r="J15" s="175">
+      <c r="H15" s="150"/>
+      <c r="I15" s="150"/>
+      <c r="J15" s="150">
         <f>COUNTIF(I20:I8798,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="K15" s="175"/>
+      <c r="K15" s="150"/>
       <c r="L15" s="118">
         <f>COUNTIF(K20:K8798,"&gt;0")</f>
         <v>0</v>
@@ -5664,63 +6140,63 @@
       </c>
     </row>
     <row r="17" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="154" t="s">
+      <c r="B17" s="168" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="154" t="s">
+      <c r="C17" s="168" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="156" t="s">
+      <c r="D17" s="159" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="156" t="s">
+      <c r="E17" s="159" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="156" t="s">
+      <c r="F17" s="159" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="156" t="s">
+      <c r="G17" s="159" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="167" t="s">
+      <c r="H17" s="157" t="s">
         <v>76</v>
       </c>
-      <c r="I17" s="156" t="s">
+      <c r="I17" s="159" t="s">
         <v>74</v>
       </c>
-      <c r="J17" s="167" t="s">
+      <c r="J17" s="157" t="s">
         <v>77</v>
       </c>
-      <c r="K17" s="156" t="s">
+      <c r="K17" s="159" t="s">
         <v>74</v>
       </c>
-      <c r="L17" s="169" t="s">
+      <c r="L17" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="N17" s="171" t="s">
+      <c r="N17" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="O17" s="171"/>
-      <c r="P17" s="171"/>
-      <c r="Q17" s="158" t="s">
+      <c r="O17" s="163"/>
+      <c r="P17" s="163"/>
+      <c r="Q17" s="170" t="s">
         <v>80</v>
       </c>
-      <c r="R17" s="158"/>
-      <c r="S17" s="159"/>
+      <c r="R17" s="170"/>
+      <c r="S17" s="171"/>
       <c r="T17" s="102"/>
     </row>
     <row r="18" spans="2:20" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="155"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="168"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="168"/>
-      <c r="K18" s="157"/>
-      <c r="L18" s="170"/>
+      <c r="B18" s="169"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="158"/>
+      <c r="K18" s="160"/>
+      <c r="L18" s="162"/>
       <c r="N18" s="95" t="s">
         <v>82</v>
       </c>
@@ -5863,16 +6339,31 @@
   </sheetData>
   <autoFilter ref="B19:L19"/>
   <mergeCells count="51">
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="O6:T6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="O7:T7"/>
@@ -5889,174 +6380,156 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="N9:T9"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="J11:K11"/>
   </mergeCells>
   <conditionalFormatting sqref="Q2:Q3 S2:S3">
-    <cfRule type="containsBlanks" dxfId="31" priority="79">
+    <cfRule type="containsBlanks" dxfId="63" priority="80">
       <formula>LEN(TRIM(Q2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="cellIs" dxfId="30" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="78" stopIfTrue="1" operator="equal">
       <formula>"out"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="cellIs" dxfId="29" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="79" stopIfTrue="1" operator="equal">
       <formula>"out"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="containsText" dxfId="28" priority="62" operator="containsText" text="чи роблять агрегати?">
+    <cfRule type="containsText" dxfId="60" priority="63" operator="containsText" text="чи роблять агрегати?">
       <formula>NOT(ISERROR(SEARCH("чи роблять агрегати?",L20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="63" operator="containsText" text="чи робить СНВВ?">
+    <cfRule type="containsText" dxfId="59" priority="64" operator="containsText" text="чи робить СНВВ?">
       <formula>NOT(ISERROR(SEARCH("чи робить СНВВ?",L20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="72" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="58" priority="73" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",L20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="73" operator="containsText" text="СНВВ не працює">
+    <cfRule type="containsText" dxfId="57" priority="74" operator="containsText" text="СНВВ не працює">
       <formula>NOT(ISERROR(SEARCH("СНВВ не працює",L20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="74" operator="containsText" text="агрегати не працюють">
+    <cfRule type="containsText" dxfId="33" priority="75" operator="containsText" text="агрегати не працюють">
       <formula>NOT(ISERROR(SEARCH("агрегати не працюють",L20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20 I20 K20 G20">
-    <cfRule type="containsBlanks" dxfId="23" priority="75">
+    <cfRule type="containsBlanks" dxfId="56" priority="76">
       <formula>LEN(TRIM(E20))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20 I20 K20 G20">
-    <cfRule type="cellIs" dxfId="22" priority="76" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="77" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11">
+    <cfRule type="cellIs" dxfId="54" priority="52" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15">
+    <cfRule type="cellIs" dxfId="53" priority="49" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15 E15">
+    <cfRule type="cellIs" dxfId="52" priority="51" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="cellIs" dxfId="51" priority="50" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="containsBlanks" dxfId="50" priority="48">
+      <formula>LEN(TRIM(E7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="containsBlanks" dxfId="49" priority="47">
+      <formula>LEN(TRIM(G7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="containsBlanks" dxfId="48" priority="46">
+      <formula>LEN(TRIM(N5))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6">
+    <cfRule type="containsBlanks" dxfId="47" priority="44">
+      <formula>LEN(TRIM(N6))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="45" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="containsBlanks" dxfId="45" priority="42">
+      <formula>LEN(TRIM(N7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="cellIs" dxfId="44" priority="43" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="cellIs" dxfId="43" priority="41" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="containsBlanks" dxfId="42" priority="36">
+      <formula>LEN(TRIM(D20))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="containsBlanks" dxfId="41" priority="33">
+      <formula>LEN(TRIM(F20))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="containsBlanks" dxfId="40" priority="30">
+      <formula>LEN(TRIM(H20))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="cellIs" dxfId="39" priority="28" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="29" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="containsBlanks" dxfId="37" priority="25">
+      <formula>LEN(TRIM(J20))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="cellIs" dxfId="36" priority="23" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20:T20">
-    <cfRule type="containsBlanks" dxfId="21" priority="54">
+    <cfRule type="containsBlanks" dxfId="34" priority="1">
       <formula>LEN(TRIM(N20))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="55" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="19" priority="51" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L15">
-    <cfRule type="cellIs" dxfId="18" priority="48" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15 E15">
-    <cfRule type="cellIs" dxfId="17" priority="50" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" dxfId="16" priority="49" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="containsBlanks" dxfId="15" priority="47">
-      <formula>LEN(TRIM(E7))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="containsBlanks" dxfId="14" priority="46">
-      <formula>LEN(TRIM(G7))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="containsBlanks" dxfId="13" priority="45">
-      <formula>LEN(TRIM(N5))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N6">
-    <cfRule type="containsBlanks" dxfId="12" priority="43">
-      <formula>LEN(TRIM(N6))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="44" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="containsBlanks" dxfId="10" priority="41">
-      <formula>LEN(TRIM(N7))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="cellIs" dxfId="9" priority="42" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="8" priority="40" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="containsBlanks" dxfId="7" priority="35">
-      <formula>LEN(TRIM(D20))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="containsBlanks" dxfId="6" priority="32">
-      <formula>LEN(TRIM(F20))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="containsBlanks" dxfId="5" priority="29">
-      <formula>LEN(TRIM(H20))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="4" priority="27" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="28" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="containsBlanks" dxfId="2" priority="24">
-      <formula>LEN(TRIM(J20))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="cellIs" dxfId="1" priority="22" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7043,11 +7516,11 @@
       <c r="A2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
       <c r="E2" s="24" t="s">
         <v>21</v>
       </c>
@@ -7102,11 +7575,11 @@
       <c r="A5" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="179" t="s">
+      <c r="B5" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="179"/>
-      <c r="D5" s="179"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
       <c r="E5" s="34">
         <f>Data_CNBB!G7</f>
         <v>0</v>
@@ -7123,11 +7596,11 @@
       <c r="A6" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="180" t="s">
+      <c r="B6" s="185" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="180"/>
-      <c r="D6" s="180"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="185"/>
       <c r="E6" s="34">
         <f>Data_CNBB!$T$15/1000000000</f>
         <v>0</v>
@@ -7144,11 +7617,11 @@
       <c r="A7" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="180" t="s">
+      <c r="B7" s="185" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="185"/>
       <c r="E7" s="38">
         <f>E6*298</f>
         <v>0</v>
@@ -7165,11 +7638,11 @@
       <c r="A8" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="181" t="s">
+      <c r="B8" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="181"/>
-      <c r="D8" s="181"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="186"/>
       <c r="E8" s="40">
         <f>IFERROR(Data_CNBB!$T$15/1000000/E5, 0)</f>
         <v>0</v>
@@ -7257,12 +7730,12 @@
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="61"/>
       <c r="B16" s="64"/>
-      <c r="C16" s="182" t="s">
+      <c r="C16" s="178" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="182"/>
-      <c r="E16" s="182"/>
-      <c r="F16" s="183"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="179"/>
       <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
@@ -7270,12 +7743,12 @@
       <c r="B17" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="182" t="s">
+      <c r="C17" s="178" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="182"/>
-      <c r="E17" s="182"/>
-      <c r="F17" s="183"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="179"/>
       <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
@@ -7283,12 +7756,12 @@
       <c r="B18" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="182" t="s">
+      <c r="C18" s="178" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="182"/>
-      <c r="E18" s="182"/>
-      <c r="F18" s="183"/>
+      <c r="D18" s="178"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="179"/>
       <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
@@ -7313,23 +7786,23 @@
       <c r="A21" s="57">
         <v>2</v>
       </c>
-      <c r="B21" s="184" t="s">
+      <c r="B21" s="187" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="185" t="s">
+      <c r="C21" s="188" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="185"/>
+      <c r="D21" s="188"/>
       <c r="E21" s="55"/>
       <c r="F21" s="56"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="75"/>
-      <c r="B22" s="184"/>
-      <c r="C22" s="186" t="s">
+      <c r="B22" s="187"/>
+      <c r="C22" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="186"/>
+      <c r="D22" s="189"/>
       <c r="E22" s="55"/>
       <c r="F22" s="56"/>
     </row>
@@ -7354,48 +7827,48 @@
       <c r="B25" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="176" t="s">
+      <c r="C25" s="181" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="176"/>
-      <c r="E25" s="176"/>
-      <c r="F25" s="177"/>
+      <c r="D25" s="181"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="182"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A26" s="53"/>
       <c r="B26" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="182" t="s">
+      <c r="C26" s="178" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="182"/>
-      <c r="E26" s="182"/>
-      <c r="F26" s="183"/>
+      <c r="D26" s="178"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="179"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A27" s="53"/>
       <c r="B27" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="182" t="s">
+      <c r="C27" s="178" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="182"/>
-      <c r="E27" s="182"/>
-      <c r="F27" s="183"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="179"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="53"/>
       <c r="B28" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="182" t="s">
+      <c r="C28" s="178" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="182"/>
-      <c r="E28" s="182"/>
-      <c r="F28" s="183"/>
+      <c r="D28" s="178"/>
+      <c r="E28" s="178"/>
+      <c r="F28" s="179"/>
     </row>
     <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="53"/>
@@ -7425,10 +7898,10 @@
       <c r="A32" s="57">
         <v>3</v>
       </c>
-      <c r="B32" s="187" t="s">
+      <c r="B32" s="180" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="187"/>
+      <c r="C32" s="180"/>
       <c r="D32" s="76"/>
       <c r="E32" s="76"/>
       <c r="F32" s="77"/>
@@ -7462,36 +7935,36 @@
       <c r="B36" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="182" t="s">
+      <c r="C36" s="178" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="182"/>
-      <c r="E36" s="182"/>
-      <c r="F36" s="183"/>
+      <c r="D36" s="178"/>
+      <c r="E36" s="178"/>
+      <c r="F36" s="179"/>
     </row>
     <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A37" s="53"/>
       <c r="B37" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="182" t="s">
+      <c r="C37" s="178" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="182"/>
-      <c r="E37" s="182"/>
-      <c r="F37" s="183"/>
+      <c r="D37" s="178"/>
+      <c r="E37" s="178"/>
+      <c r="F37" s="179"/>
     </row>
     <row r="38" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A38" s="53"/>
       <c r="B38" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="182" t="s">
+      <c r="C38" s="178" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="182"/>
-      <c r="E38" s="182"/>
-      <c r="F38" s="183"/>
+      <c r="D38" s="178"/>
+      <c r="E38" s="178"/>
+      <c r="F38" s="179"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="84"/>
@@ -7503,13 +7976,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B5:D5"/>
@@ -7522,6 +7988,13 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/src/api/opcua/ua-cherkassy-azot_test2/test-data/acmYearTemplate2.xlsx
+++ b/src/api/opcua/ua-cherkassy-azot_test2/test-data/acmYearTemplate2.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="24915" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="22830" windowHeight="8940" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
     <sheet name="Data_CNBB" sheetId="2" r:id="rId2"/>
     <sheet name="Results" sheetId="3" r:id="rId3"/>
+    <sheet name="Сonsolidated" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data_CNBB!$B$19:$L$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data_CNBB!$B$19:$M$19</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="120">
   <si>
     <r>
       <t>Цей файл являє собою інструмент для розрахунку викидів N</t>
@@ -1319,12 +1320,78 @@
   <si>
     <t>роботи агрегатів</t>
   </si>
+  <si>
+    <t>Мiсяц</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>2022-01</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1335,6 +1402,7 @@
     <numFmt numFmtId="171" formatCode="0.0"/>
     <numFmt numFmtId="172" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="173" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="174" formatCode="yyyy\-mm"/>
   </numFmts>
   <fonts count="64" x14ac:knownFonts="1">
     <font>
@@ -2492,7 +2560,7 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
     <xf numFmtId="173" fontId="63" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -2779,6 +2847,9 @@
     <xf numFmtId="20" fontId="46" fillId="0" borderId="19" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="174" fontId="46" fillId="0" borderId="19" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2863,6 +2934,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="170" fontId="50" fillId="4" borderId="21" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="50" fillId="4" borderId="43" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="61" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2921,12 +2998,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="49" fillId="8" borderId="19" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="50" fillId="4" borderId="21" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="50" fillId="4" borderId="43" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="171" fontId="49" fillId="4" borderId="19" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3003,490 +3074,7 @@
     <cellStyle name="Обычный_%использ. уст. мощн.2005г." xfId="4"/>
     <cellStyle name="Обычный_Лист1" xfId="9"/>
   </cellStyles>
-  <dxfs count="66">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF006600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF006600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <color rgb="FF006600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="3"/>
-      </font>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <fill>
         <patternFill>
@@ -3853,6 +3441,13 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i/>
+        <color theme="3"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i/>
         <color rgb="FFFF0000"/>
@@ -3892,27 +3487,6 @@
         <extend val="0"/>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5" tint="-0.24994659260841701"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -4529,71 +4103,71 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
     </row>
     <row r="3" spans="1:12" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="141"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="142"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="129"/>
-      <c r="D4" s="142" t="s">
+      <c r="C4" s="130"/>
+      <c r="D4" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="145"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="145" t="s">
+      <c r="B5" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="146"/>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="147"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="147"/>
+      <c r="K5" s="147"/>
+      <c r="L5" s="148"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -4628,50 +4202,50 @@
       <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="138" t="s">
+      <c r="C8" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="138"/>
-      <c r="K8" s="138"/>
-      <c r="L8" s="138"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="127" t="s">
+      <c r="C9" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="127"/>
-      <c r="L10" s="127"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="128"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
@@ -4691,33 +4265,33 @@
       <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B12" s="128" t="s">
+      <c r="B12" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="129"/>
-      <c r="D12" s="130" t="s">
+      <c r="C12" s="130"/>
+      <c r="D12" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="131"/>
-      <c r="K12" s="131"/>
-      <c r="L12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="133"/>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="133"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="136"/>
-      <c r="J13" s="137"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="138"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
@@ -4725,131 +4299,131 @@
       <c r="A14" s="2">
         <v>4</v>
       </c>
-      <c r="B14" s="122" t="s">
+      <c r="B14" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="124"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="125"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="125" t="s">
+      <c r="B15" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="125"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="126"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="126"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>5</v>
       </c>
-      <c r="B16" s="126" t="s">
+      <c r="B16" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="126"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="126"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="127"/>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="121"/>
-      <c r="K17" s="121"/>
-      <c r="L17" s="121"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="122"/>
+      <c r="K17" s="122"/>
+      <c r="L17" s="122"/>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="120" t="s">
+      <c r="D18" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="121"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="121"/>
-      <c r="K18" s="121"/>
-      <c r="L18" s="121"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="122"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="122"/>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="120" t="s">
+      <c r="D19" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="121"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="121"/>
-      <c r="K19" s="121"/>
-      <c r="L19" s="121"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="122"/>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="18"/>
-      <c r="D20" s="121" t="s">
+      <c r="D20" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="121"/>
-      <c r="L20" s="121"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="122"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="121" t="s">
+      <c r="D21" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="121"/>
-      <c r="K21" s="121"/>
-      <c r="L21" s="121"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="122"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="122"/>
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
@@ -5643,7 +5217,7 @@
     <mergeCell ref="D18:L18"/>
   </mergeCells>
   <conditionalFormatting sqref="C22">
-    <cfRule type="cellIs" dxfId="65" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5658,221 +5232,221 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T20"/>
+  <dimension ref="B1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="25.5703125" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" customWidth="1"/>
-    <col min="17" max="17" width="17" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" customWidth="1"/>
-    <col min="19" max="19" width="18.140625" customWidth="1"/>
-    <col min="20" max="20" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="25.5703125" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" customWidth="1"/>
+    <col min="18" max="18" width="17" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" customWidth="1"/>
+    <col min="20" max="20" width="18.140625" customWidth="1"/>
+    <col min="21" max="21" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="165" t="s">
+    <row r="1" spans="3:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="168" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="166" t="s">
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="169" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="166"/>
-      <c r="I1" s="88"/>
+      <c r="I1" s="169"/>
       <c r="J1" s="88"/>
       <c r="K1" s="88"/>
-      <c r="L1" s="89"/>
+      <c r="L1" s="88"/>
       <c r="M1" s="89"/>
-      <c r="N1" s="176" t="s">
+      <c r="N1" s="89"/>
+      <c r="O1" s="177" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="177" t="s">
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="178" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="177"/>
-      <c r="S1" s="177" t="s">
+      <c r="S1" s="178"/>
+      <c r="T1" s="178" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="177"/>
-    </row>
-    <row r="2" spans="2:20" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="165" t="s">
+      <c r="U1" s="178"/>
+    </row>
+    <row r="2" spans="3:21" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="C2" s="168" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="175" t="s">
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="176" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="175"/>
-      <c r="I2" s="90"/>
+      <c r="I2" s="176"/>
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
-      <c r="L2" s="89"/>
+      <c r="L2" s="90"/>
       <c r="M2" s="89"/>
-      <c r="N2" s="91"/>
+      <c r="N2" s="89"/>
       <c r="O2" s="91"/>
-      <c r="P2" s="92" t="s">
+      <c r="P2" s="91"/>
+      <c r="Q2" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="Q2" s="167">
+      <c r="R2" s="170">
         <v>0.93520000000000003</v>
       </c>
-      <c r="R2" s="167"/>
-      <c r="S2" s="167">
+      <c r="S2" s="170"/>
+      <c r="T2" s="170">
         <v>1.1951000000000001</v>
       </c>
-      <c r="T2" s="167"/>
-    </row>
-    <row r="3" spans="2:20" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="165" t="s">
+      <c r="U2" s="170"/>
+    </row>
+    <row r="3" spans="3:21" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="C3" s="168" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="166" t="s">
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="92" t="s">
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="Q3" s="167">
+      <c r="R3" s="170">
         <v>0</v>
       </c>
-      <c r="R3" s="167"/>
-      <c r="S3" s="167">
+      <c r="S3" s="170"/>
+      <c r="T3" s="170">
         <v>0</v>
       </c>
-      <c r="T3" s="167"/>
-    </row>
-    <row r="5" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="151" t="s">
+      <c r="U3" s="170"/>
+    </row>
+    <row r="5" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="154" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="151"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="151"/>
-      <c r="F5" s="151"/>
-      <c r="G5" s="91"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
       <c r="H5" s="91"/>
       <c r="I5" s="91"/>
       <c r="J5" s="91"/>
       <c r="K5" s="91"/>
-      <c r="L5" s="108" t="s">
+      <c r="L5" s="91"/>
+      <c r="M5" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="91"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="172" t="s">
+      <c r="N5" s="91"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="173"/>
-      <c r="Q5" s="173"/>
-      <c r="R5" s="173"/>
-      <c r="S5" s="173"/>
-      <c r="T5" s="173"/>
-    </row>
-    <row r="6" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="109"/>
-      <c r="C6" s="91"/>
+      <c r="Q5" s="174"/>
+      <c r="R5" s="174"/>
+      <c r="S5" s="174"/>
+      <c r="T5" s="174"/>
+      <c r="U5" s="174"/>
+    </row>
+    <row r="6" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="109"/>
       <c r="D6" s="91"/>
-      <c r="E6" s="174" t="s">
+      <c r="E6" s="91"/>
+      <c r="F6" s="175" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="174"/>
-      <c r="G6" s="174" t="s">
+      <c r="G6" s="175"/>
+      <c r="H6" s="175" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="174"/>
-      <c r="I6" s="91"/>
+      <c r="I6" s="175"/>
       <c r="J6" s="91"/>
       <c r="K6" s="91"/>
       <c r="L6" s="91"/>
       <c r="M6" s="91"/>
-      <c r="N6" s="106"/>
-      <c r="O6" s="172" t="s">
+      <c r="N6" s="91"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="173" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="173"/>
-      <c r="Q6" s="173"/>
-      <c r="R6" s="173"/>
-      <c r="S6" s="173"/>
-      <c r="T6" s="173"/>
-    </row>
-    <row r="7" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="109"/>
-      <c r="C7" s="91"/>
+      <c r="Q6" s="174"/>
+      <c r="R6" s="174"/>
+      <c r="S6" s="174"/>
+      <c r="T6" s="174"/>
+      <c r="U6" s="174"/>
+    </row>
+    <row r="7" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="109"/>
       <c r="D7" s="91"/>
-      <c r="E7" s="154">
-        <f>SUM(H20:H8798)</f>
+      <c r="E7" s="91"/>
+      <c r="F7" s="157">
+        <f>SUM(I20:I8798)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="154"/>
-      <c r="G7" s="154">
-        <f>SUM(J20:J8798)</f>
+      <c r="G7" s="157"/>
+      <c r="H7" s="157">
+        <f>SUM(K20:K8798)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="154"/>
-      <c r="I7" s="91"/>
+      <c r="I7" s="157"/>
       <c r="J7" s="91"/>
       <c r="K7" s="91"/>
       <c r="L7" s="91"/>
       <c r="M7" s="91"/>
-      <c r="N7" s="106">
+      <c r="N7" s="91"/>
+      <c r="O7" s="106">
         <v>1</v>
       </c>
-      <c r="O7" s="155" t="s">
+      <c r="P7" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="P7" s="156"/>
-      <c r="Q7" s="156"/>
-      <c r="R7" s="156"/>
-      <c r="S7" s="156"/>
-      <c r="T7" s="156"/>
-    </row>
-    <row r="8" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="109"/>
-      <c r="C8" s="91"/>
+      <c r="Q7" s="159"/>
+      <c r="R7" s="159"/>
+      <c r="S7" s="159"/>
+      <c r="T7" s="159"/>
+      <c r="U7" s="159"/>
+    </row>
+    <row r="8" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="109"/>
       <c r="D8" s="91"/>
       <c r="E8" s="91"/>
       <c r="F8" s="91"/>
       <c r="G8" s="91"/>
-      <c r="H8" s="110"/>
+      <c r="H8" s="91"/>
       <c r="I8" s="110"/>
-      <c r="J8" s="91"/>
+      <c r="J8" s="110"/>
       <c r="K8" s="91"/>
       <c r="L8" s="91"/>
       <c r="M8" s="91"/>
@@ -5880,111 +5454,108 @@
       <c r="O8" s="91"/>
       <c r="P8" s="91"/>
       <c r="Q8" s="91"/>
-      <c r="R8" s="110"/>
-      <c r="S8" s="91"/>
-      <c r="T8" s="110"/>
-    </row>
-    <row r="9" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="151" t="s">
+      <c r="R8" s="91"/>
+      <c r="S8" s="110"/>
+      <c r="T8" s="91"/>
+      <c r="U8" s="110"/>
+    </row>
+    <row r="9" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="154" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="151"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="151" t="s">
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="154" t="s">
         <v>89</v>
       </c>
-      <c r="K9" s="151"/>
-      <c r="L9" s="151"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="151" t="s">
+      <c r="L9" s="154"/>
+      <c r="M9" s="154"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="154" t="s">
         <v>90</v>
       </c>
-      <c r="O9" s="151"/>
-      <c r="P9" s="151"/>
-      <c r="Q9" s="151"/>
-      <c r="R9" s="151"/>
-      <c r="S9" s="151"/>
-      <c r="T9" s="151"/>
-    </row>
-    <row r="10" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="109"/>
-      <c r="C10" s="91"/>
+      <c r="P9" s="154"/>
+      <c r="Q9" s="154"/>
+      <c r="R9" s="154"/>
+      <c r="S9" s="154"/>
+      <c r="T9" s="154"/>
+      <c r="U9" s="154"/>
+    </row>
+    <row r="10" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="109"/>
       <c r="D10" s="91"/>
-      <c r="E10" s="148" t="s">
+      <c r="E10" s="91"/>
+      <c r="F10" s="151" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="148"/>
-      <c r="G10" s="149" t="s">
+      <c r="G10" s="151"/>
+      <c r="H10" s="152" t="s">
         <v>92</v>
       </c>
-      <c r="H10" s="149"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="148" t="s">
+      <c r="I10" s="152"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="151" t="s">
         <v>86</v>
       </c>
-      <c r="K10" s="148"/>
-      <c r="L10" s="112" t="s">
+      <c r="L10" s="151"/>
+      <c r="M10" s="112" t="s">
         <v>93</v>
       </c>
-      <c r="M10" s="91"/>
-      <c r="N10" s="113">
+      <c r="N10" s="91"/>
+      <c r="O10" s="113">
         <v>12</v>
       </c>
-      <c r="O10" s="113">
+      <c r="P10" s="113">
         <v>13</v>
       </c>
-      <c r="P10" s="113">
+      <c r="Q10" s="113">
         <v>14</v>
       </c>
-      <c r="Q10" s="113">
+      <c r="R10" s="113">
         <v>15</v>
       </c>
-      <c r="R10" s="113">
+      <c r="S10" s="113">
         <v>16</v>
       </c>
-      <c r="S10" s="113">
+      <c r="T10" s="113">
         <v>17</v>
       </c>
-      <c r="T10" s="113">
+      <c r="U10" s="113">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="109"/>
-      <c r="C11" s="91"/>
+    <row r="11" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="109"/>
       <c r="D11" s="91"/>
-      <c r="E11" s="150">
-        <f>COUNTIF(N20:N8798,"&gt;0")</f>
+      <c r="E11" s="91"/>
+      <c r="F11" s="153">
+        <f>COUNTIF(O20:O8798,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150">
-        <f>COUNTIF(Q20:Q8798,"&gt;0")</f>
+      <c r="G11" s="153"/>
+      <c r="H11" s="153">
+        <f>COUNTIF(R20:R8798,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="H11" s="150"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="152">
-        <f>COUNTIF($L20:$L8800,"СНВВ не працює")</f>
+      <c r="I11" s="153"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="155">
+        <f>COUNTIF($M20:$M8800,"СНВВ не працює")</f>
         <v>0</v>
       </c>
-      <c r="K11" s="153"/>
-      <c r="L11" s="114">
-        <f>COUNTIF($L20:$L8800,"агрегати не працюють")</f>
+      <c r="L11" s="156"/>
+      <c r="M11" s="114">
+        <f>COUNTIF($M20:$M8800,"агрегати не працюють")</f>
         <v>0</v>
       </c>
-      <c r="M11" s="91"/>
-      <c r="N11" s="115">
-        <f t="shared" ref="N11:T11" si="0">COUNT(N20:N8798)</f>
-        <v>0</v>
-      </c>
+      <c r="N11" s="91"/>
       <c r="O11" s="115">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="O11:U11" si="0">COUNT(O20:O8798)</f>
         <v>0</v>
       </c>
       <c r="P11" s="115">
@@ -6007,9 +5578,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="110"/>
+      <c r="U11" s="115">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C12" s="110"/>
       <c r="D12" s="110"/>
       <c r="E12" s="110"/>
@@ -6020,516 +5594,530 @@
       <c r="J12" s="110"/>
       <c r="K12" s="110"/>
       <c r="L12" s="110"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="110"/>
+      <c r="M12" s="110"/>
+      <c r="N12" s="91"/>
       <c r="O12" s="110"/>
       <c r="P12" s="110"/>
       <c r="Q12" s="110"/>
       <c r="R12" s="110"/>
       <c r="S12" s="110"/>
       <c r="T12" s="110"/>
-    </row>
-    <row r="13" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="151" t="s">
+      <c r="U12" s="110"/>
+    </row>
+    <row r="13" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="154" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="151"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="116"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
       <c r="H13" s="116"/>
       <c r="I13" s="116"/>
-      <c r="J13" s="91"/>
+      <c r="J13" s="116"/>
       <c r="K13" s="91"/>
       <c r="L13" s="91"/>
       <c r="M13" s="91"/>
-      <c r="N13" s="151" t="s">
+      <c r="N13" s="91"/>
+      <c r="O13" s="154" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="151"/>
-      <c r="P13" s="151"/>
-      <c r="Q13" s="151"/>
-      <c r="R13" s="151"/>
-      <c r="S13" s="151"/>
-      <c r="T13" s="151"/>
-    </row>
-    <row r="14" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="109"/>
-      <c r="C14" s="91"/>
+      <c r="P13" s="154"/>
+      <c r="Q13" s="154"/>
+      <c r="R13" s="154"/>
+      <c r="S13" s="154"/>
+      <c r="T13" s="154"/>
+      <c r="U13" s="154"/>
+    </row>
+    <row r="14" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="109"/>
       <c r="D14" s="91"/>
-      <c r="E14" s="148" t="s">
+      <c r="E14" s="91"/>
+      <c r="F14" s="151" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="148"/>
-      <c r="G14" s="164" t="s">
+      <c r="G14" s="151"/>
+      <c r="H14" s="167" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="164"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="148" t="s">
+      <c r="I14" s="167"/>
+      <c r="J14" s="167"/>
+      <c r="K14" s="151" t="s">
         <v>96</v>
       </c>
-      <c r="K14" s="148"/>
-      <c r="L14" s="117" t="s">
+      <c r="L14" s="151"/>
+      <c r="M14" s="117" t="s">
         <v>97</v>
       </c>
-      <c r="M14" s="91"/>
-      <c r="N14" s="113">
+      <c r="N14" s="91"/>
+      <c r="O14" s="113">
         <v>12</v>
       </c>
-      <c r="O14" s="113">
+      <c r="P14" s="113">
         <v>13</v>
       </c>
-      <c r="P14" s="113">
+      <c r="Q14" s="113">
         <v>14</v>
       </c>
-      <c r="Q14" s="113">
+      <c r="R14" s="113">
         <v>15</v>
       </c>
-      <c r="R14" s="113">
+      <c r="S14" s="113">
         <v>16</v>
       </c>
-      <c r="S14" s="113">
+      <c r="T14" s="113">
         <v>17</v>
       </c>
-      <c r="T14" s="113">
+      <c r="U14" s="113">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="109"/>
-      <c r="C15" s="91"/>
+    <row r="15" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="109"/>
       <c r="D15" s="91"/>
-      <c r="E15" s="150">
-        <f>COUNTIF(E20:E8798,"&gt;0")</f>
+      <c r="E15" s="91"/>
+      <c r="F15" s="153">
+        <f>COUNTIF(F20:F8798,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="F15" s="150"/>
-      <c r="G15" s="150">
-        <f>COUNTIF(G20:G8798,"&gt;0")</f>
+      <c r="G15" s="153"/>
+      <c r="H15" s="153">
+        <f>COUNTIF(H20:H8798,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="H15" s="150"/>
-      <c r="I15" s="150"/>
-      <c r="J15" s="150">
-        <f>COUNTIF(I20:I8798,"&gt;0")</f>
+      <c r="I15" s="153"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="153">
+        <f>COUNTIF(J20:J8798,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="K15" s="150"/>
-      <c r="L15" s="118">
-        <f>COUNTIF(K20:K8798,"&gt;0")</f>
+      <c r="L15" s="153"/>
+      <c r="M15" s="118">
+        <f>COUNTIF(L20:L8798,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="M15" s="91"/>
-      <c r="N15" s="115"/>
+      <c r="N15" s="91"/>
       <c r="O15" s="115"/>
-      <c r="P15" s="115">
-        <f>SUM(P20:P8798)</f>
+      <c r="P15" s="115"/>
+      <c r="Q15" s="115">
+        <f>SUM(Q20:Q8798)</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="115"/>
       <c r="R15" s="115"/>
-      <c r="S15" s="115">
-        <f>SUM(S20:S8798)</f>
-        <v>0</v>
-      </c>
+      <c r="S15" s="115"/>
       <c r="T15" s="115">
         <f>SUM(T20:T8798)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="168" t="s">
+      <c r="U15" s="115">
+        <f>SUM(U20:U8798)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="149" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="149" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="168" t="s">
+      <c r="D17" s="149" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="159" t="s">
+      <c r="E17" s="162" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="159" t="s">
+      <c r="F17" s="162" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="159" t="s">
+      <c r="G17" s="162" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="159" t="s">
+      <c r="H17" s="162" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="157" t="s">
+      <c r="I17" s="160" t="s">
         <v>76</v>
       </c>
-      <c r="I17" s="159" t="s">
+      <c r="J17" s="162" t="s">
         <v>74</v>
       </c>
-      <c r="J17" s="157" t="s">
+      <c r="K17" s="160" t="s">
         <v>77</v>
       </c>
-      <c r="K17" s="159" t="s">
+      <c r="L17" s="162" t="s">
         <v>74</v>
       </c>
-      <c r="L17" s="161" t="s">
+      <c r="M17" s="164" t="s">
         <v>78</v>
       </c>
-      <c r="N17" s="163" t="s">
+      <c r="O17" s="166" t="s">
         <v>79</v>
       </c>
-      <c r="O17" s="163"/>
-      <c r="P17" s="163"/>
-      <c r="Q17" s="170" t="s">
+      <c r="P17" s="166"/>
+      <c r="Q17" s="166"/>
+      <c r="R17" s="171" t="s">
         <v>80</v>
       </c>
-      <c r="R17" s="170"/>
       <c r="S17" s="171"/>
-      <c r="T17" s="102"/>
-    </row>
-    <row r="18" spans="2:20" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="169"/>
-      <c r="C18" s="169"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="158"/>
-      <c r="K18" s="160"/>
-      <c r="L18" s="162"/>
-      <c r="N18" s="95" t="s">
+      <c r="T17" s="172"/>
+      <c r="U17" s="102"/>
+    </row>
+    <row r="18" spans="2:21" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="150"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="163"/>
+      <c r="M18" s="165"/>
+      <c r="O18" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="O18" s="96" t="s">
+      <c r="P18" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="P18" s="97" t="s">
+      <c r="Q18" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="Q18" s="95" t="s">
+      <c r="R18" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="R18" s="96" t="s">
+      <c r="S18" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="S18" s="101" t="s">
+      <c r="T18" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="T18" s="104" t="s">
+      <c r="U18" s="104" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="98">
-        <v>1</v>
-      </c>
-      <c r="C19" s="98">
-        <v>2</v>
-      </c>
-      <c r="D19" s="98">
-        <v>3</v>
-      </c>
-      <c r="E19" s="98">
-        <v>4</v>
-      </c>
-      <c r="F19" s="98">
-        <v>5</v>
-      </c>
-      <c r="G19" s="98">
-        <v>6</v>
-      </c>
-      <c r="H19" s="98">
-        <v>7</v>
-      </c>
-      <c r="I19" s="98">
-        <v>8</v>
-      </c>
-      <c r="J19" s="98">
-        <v>9</v>
-      </c>
-      <c r="K19" s="98">
-        <v>10</v>
-      </c>
-      <c r="L19" s="98">
-        <v>11</v>
-      </c>
-      <c r="M19" s="99"/>
-      <c r="N19" s="100">
-        <v>12</v>
-      </c>
-      <c r="O19" s="100">
-        <v>13</v>
-      </c>
-      <c r="P19" s="100">
-        <v>14</v>
-      </c>
-      <c r="Q19" s="100">
-        <v>15</v>
-      </c>
-      <c r="R19" s="100">
-        <v>16</v>
-      </c>
-      <c r="S19" s="100">
-        <v>17</v>
-      </c>
-      <c r="T19" s="103">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="105">
-        <v>44562.041666666657</v>
-      </c>
-      <c r="C20" s="119">
-        <v>44562.041666666657</v>
-      </c>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106" t="str">
-        <f>IF(D20="","",IF(D20&lt;1,1,0))</f>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="98" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="98" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="98" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="98" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" s="98" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="98" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="M19" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="N19" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="O19" s="100" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="100" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="100" t="s">
+        <v>114</v>
+      </c>
+      <c r="R19" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="S19" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="T19" s="100" t="s">
+        <v>117</v>
+      </c>
+      <c r="U19" s="103" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="120" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="105">
+        <v>44562</v>
+      </c>
+      <c r="D20" s="119">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106" t="str">
+        <f>IF(E20="","",IF(E20&lt;1,1,0))</f>
         <v/>
       </c>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106" t="str">
-        <f>IF(F20="","",IF(F20&lt;1,1,0))</f>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106" t="str">
+        <f>IF(G20="","",IF(G20&lt;1,1,0))</f>
         <v/>
       </c>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106" t="str">
-        <f>IF(H20="","",IF(H20&lt;1,1,0))</f>
+      <c r="I20" s="106"/>
+      <c r="J20" s="106" t="str">
+        <f>IF(I20="","",IF(I20&lt;1,1,0))</f>
         <v/>
       </c>
-      <c r="J20" s="106"/>
-      <c r="K20" s="106" t="str">
-        <f>IF(J20="","",IF(J20&lt;1,1,0))</f>
+      <c r="K20" s="106"/>
+      <c r="L20" s="106" t="str">
+        <f>IF(K20="","",IF(K20&lt;1,1,0))</f>
         <v/>
       </c>
-      <c r="L20" s="107" t="str">
-        <f>IF(H20="","чи робить СНВВ?",IF(J20="","чи роблять агрегати?",IF($J20=0,"агрегати не працюють",IF(AND($H20=0,$J20=1),"СНВВ не працює","OK"))))</f>
+      <c r="M20" s="107" t="str">
+        <f>IF(I20="","чи робить СНВВ?",IF(K20="","чи роблять агрегати?",IF($K20=0,"агрегати не працюють",IF(AND($I20=0,$K20=1),"СНВВ не працює","OK"))))</f>
         <v>чи робить СНВВ?</v>
       </c>
-      <c r="N20" s="106" t="str">
-        <f>IF(OR(E20&lt;&gt;0, J20=0), "",D20)</f>
+      <c r="O20" s="106" t="str">
+        <f>IF(OR(F20&lt;&gt;0, K20=0), "",E20)</f>
         <v/>
       </c>
-      <c r="O20" s="106" t="str">
-        <f>IF(N20="", "",(N20*$Q$2+$Q$3))</f>
+      <c r="P20" s="106" t="str">
+        <f>IF(O20="", "",(O20*$R$2+$R$3))</f>
         <v/>
       </c>
-      <c r="P20" s="106" t="str">
-        <f>IF(AND($E20&lt;&gt;0,$J20=1),D20,O20)</f>
+      <c r="Q20" s="106" t="str">
+        <f>IF(AND($F20&lt;&gt;0,$K20=1),E20,P20)</f>
         <v/>
       </c>
-      <c r="Q20" s="106" t="str">
-        <f>IF(OR(G20&lt;&gt;0, J20=0), "",F20)</f>
+      <c r="R20" s="106" t="str">
+        <f>IF(OR(H20&lt;&gt;0, K20=0), "",G20)</f>
         <v/>
       </c>
-      <c r="R20" s="106" t="str">
-        <f>IF(Q20="", "",(Q20*$S$2+$S$3))</f>
+      <c r="S20" s="106" t="str">
+        <f>IF(R20="", "",(R20*$T$2+$T$3))</f>
         <v/>
       </c>
-      <c r="S20" s="106" t="str">
-        <f>IF(AND(G20&lt;&gt;0,J20=1),F20,R20)</f>
+      <c r="T20" s="106" t="str">
+        <f>IF(AND(H20&lt;&gt;0,K20=1),G20,S20)</f>
         <v/>
       </c>
-      <c r="T20" s="106" t="str">
-        <f>IFERROR(P20*S20,"")</f>
+      <c r="U20" s="106" t="str">
+        <f>IFERROR(Q20*T20,"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B19:L19"/>
-  <mergeCells count="51">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="B17:B18"/>
+  <autoFilter ref="B19:M19"/>
+  <mergeCells count="52">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="G17:G18"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="O7:T7"/>
     <mergeCell ref="H17:H18"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="P5:U5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="P6:U6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="P7:U7"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="L17:L18"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N13:T13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="N9:T9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O13:U13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="O9:U9"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="K11:L11"/>
   </mergeCells>
-  <conditionalFormatting sqref="Q2:Q3 S2:S3">
-    <cfRule type="containsBlanks" dxfId="63" priority="80">
-      <formula>LEN(TRIM(Q2))=0</formula>
+  <conditionalFormatting sqref="R2:R3 T2:T3">
+    <cfRule type="containsBlanks" dxfId="30" priority="80">
+      <formula>LEN(TRIM(R2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
-    <cfRule type="cellIs" dxfId="62" priority="78" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="M17">
+    <cfRule type="cellIs" dxfId="29" priority="78" stopIfTrue="1" operator="equal">
       <formula>"out"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
-    <cfRule type="cellIs" dxfId="61" priority="79" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="M17">
+    <cfRule type="cellIs" dxfId="28" priority="79" stopIfTrue="1" operator="equal">
       <formula>"out"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L20">
-    <cfRule type="containsText" dxfId="60" priority="63" operator="containsText" text="чи роблять агрегати?">
-      <formula>NOT(ISERROR(SEARCH("чи роблять агрегати?",L20)))</formula>
+  <conditionalFormatting sqref="M20">
+    <cfRule type="containsText" dxfId="27" priority="63" operator="containsText" text="чи роблять агрегати?">
+      <formula>NOT(ISERROR(SEARCH("чи роблять агрегати?",M20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="64" operator="containsText" text="чи робить СНВВ?">
-      <formula>NOT(ISERROR(SEARCH("чи робить СНВВ?",L20)))</formula>
+    <cfRule type="containsText" dxfId="26" priority="64" operator="containsText" text="чи робить СНВВ?">
+      <formula>NOT(ISERROR(SEARCH("чи робить СНВВ?",M20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="73" operator="containsText" text="OK">
-      <formula>NOT(ISERROR(SEARCH("OK",L20)))</formula>
+    <cfRule type="containsText" dxfId="25" priority="73" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",M20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="74" operator="containsText" text="СНВВ не працює">
-      <formula>NOT(ISERROR(SEARCH("СНВВ не працює",L20)))</formula>
+    <cfRule type="containsText" dxfId="24" priority="74" operator="containsText" text="СНВВ не працює">
+      <formula>NOT(ISERROR(SEARCH("СНВВ не працює",M20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="75" operator="containsText" text="агрегати не працюють">
-      <formula>NOT(ISERROR(SEARCH("агрегати не працюють",L20)))</formula>
+    <cfRule type="containsText" dxfId="23" priority="75" operator="containsText" text="агрегати не працюють">
+      <formula>NOT(ISERROR(SEARCH("агрегати не працюють",M20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20 I20 K20 G20">
-    <cfRule type="containsBlanks" dxfId="56" priority="76">
+  <conditionalFormatting sqref="F20 J20 L20 H20">
+    <cfRule type="containsBlanks" dxfId="22" priority="76">
+      <formula>LEN(TRIM(F20))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20 J20 L20 H20">
+    <cfRule type="cellIs" dxfId="21" priority="77" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11">
+    <cfRule type="cellIs" dxfId="20" priority="52" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15">
+    <cfRule type="cellIs" dxfId="19" priority="49" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15 F15">
+    <cfRule type="cellIs" dxfId="18" priority="51" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="cellIs" dxfId="17" priority="50" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="containsBlanks" dxfId="16" priority="48">
+      <formula>LEN(TRIM(F7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="containsBlanks" dxfId="15" priority="47">
+      <formula>LEN(TRIM(H7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="containsBlanks" dxfId="14" priority="46">
+      <formula>LEN(TRIM(O5))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6">
+    <cfRule type="containsBlanks" dxfId="13" priority="44">
+      <formula>LEN(TRIM(O6))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="45" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7">
+    <cfRule type="containsBlanks" dxfId="11" priority="42">
+      <formula>LEN(TRIM(O7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7">
+    <cfRule type="cellIs" dxfId="10" priority="43" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="cellIs" dxfId="9" priority="41" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="containsBlanks" dxfId="8" priority="36">
       <formula>LEN(TRIM(E20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20 I20 K20 G20">
-    <cfRule type="cellIs" dxfId="55" priority="77" operator="greaterThan">
+  <conditionalFormatting sqref="G20">
+    <cfRule type="containsBlanks" dxfId="7" priority="33">
+      <formula>LEN(TRIM(G20))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="containsBlanks" dxfId="6" priority="30">
+      <formula>LEN(TRIM(I20))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="cellIs" dxfId="5" priority="28" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="54" priority="52" operator="greaterThan">
+  <conditionalFormatting sqref="K20">
+    <cfRule type="containsBlanks" dxfId="3" priority="25">
+      <formula>LEN(TRIM(K20))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="cellIs" dxfId="2" priority="23" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L15">
-    <cfRule type="cellIs" dxfId="53" priority="49" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15 E15">
-    <cfRule type="cellIs" dxfId="52" priority="51" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" dxfId="51" priority="50" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="containsBlanks" dxfId="50" priority="48">
-      <formula>LEN(TRIM(E7))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="containsBlanks" dxfId="49" priority="47">
-      <formula>LEN(TRIM(G7))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="containsBlanks" dxfId="48" priority="46">
-      <formula>LEN(TRIM(N5))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N6">
-    <cfRule type="containsBlanks" dxfId="47" priority="44">
-      <formula>LEN(TRIM(N6))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="45" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="containsBlanks" dxfId="45" priority="42">
-      <formula>LEN(TRIM(N7))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="cellIs" dxfId="44" priority="43" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="43" priority="41" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="containsBlanks" dxfId="42" priority="36">
-      <formula>LEN(TRIM(D20))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="containsBlanks" dxfId="41" priority="33">
-      <formula>LEN(TRIM(F20))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="containsBlanks" dxfId="40" priority="30">
-      <formula>LEN(TRIM(H20))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="39" priority="28" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="29" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="containsBlanks" dxfId="37" priority="25">
-      <formula>LEN(TRIM(J20))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="cellIs" dxfId="36" priority="23" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="24" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N20:T20">
-    <cfRule type="containsBlanks" dxfId="34" priority="1">
-      <formula>LEN(TRIM(N20))=0</formula>
+  <conditionalFormatting sqref="O20:U20">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(O20))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7516,11 +7104,11 @@
       <c r="A2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
       <c r="E2" s="24" t="s">
         <v>21</v>
       </c>
@@ -7539,7 +7127,7 @@
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
       <c r="E3" s="30">
-        <f>IFERROR(Data_CNBB!P15/E5, 0)</f>
+        <f>IFERROR(Data_CNBB!Q15/E5, 0)</f>
         <v>0</v>
       </c>
       <c r="F3" s="31" t="s">
@@ -7560,7 +7148,7 @@
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="33">
-        <f>IFERROR(Data_CNBB!S15/E5, 0)</f>
+        <f>IFERROR(Data_CNBB!T15/E5, 0)</f>
         <v>0</v>
       </c>
       <c r="F4" s="31" t="s">
@@ -7575,13 +7163,13 @@
       <c r="A5" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="184" t="s">
+      <c r="B5" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
+      <c r="C5" s="185"/>
+      <c r="D5" s="185"/>
       <c r="E5" s="34">
-        <f>Data_CNBB!G7</f>
+        <f>Data_CNBB!H7</f>
         <v>0</v>
       </c>
       <c r="F5" s="31" t="s">
@@ -7596,13 +7184,13 @@
       <c r="A6" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="185" t="s">
+      <c r="B6" s="186" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="185"/>
-      <c r="D6" s="185"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="186"/>
       <c r="E6" s="34">
-        <f>Data_CNBB!$T$15/1000000000</f>
+        <f>Data_CNBB!$U$15/1000000000</f>
         <v>0</v>
       </c>
       <c r="F6" s="31" t="s">
@@ -7617,11 +7205,11 @@
       <c r="A7" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="185" t="s">
+      <c r="B7" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="185"/>
-      <c r="D7" s="185"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="186"/>
       <c r="E7" s="38">
         <f>E6*298</f>
         <v>0</v>
@@ -7638,13 +7226,13 @@
       <c r="A8" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="186" t="s">
+      <c r="B8" s="187" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="186"/>
-      <c r="D8" s="186"/>
+      <c r="C8" s="187"/>
+      <c r="D8" s="187"/>
       <c r="E8" s="40">
-        <f>IFERROR(Data_CNBB!$T$15/1000000/E5, 0)</f>
+        <f>IFERROR(Data_CNBB!$U$15/1000000/E5, 0)</f>
         <v>0</v>
       </c>
       <c r="F8" s="41" t="s">
@@ -7730,12 +7318,12 @@
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="61"/>
       <c r="B16" s="64"/>
-      <c r="C16" s="178" t="s">
+      <c r="C16" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="179"/>
+      <c r="D16" s="179"/>
+      <c r="E16" s="179"/>
+      <c r="F16" s="180"/>
       <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
@@ -7743,12 +7331,12 @@
       <c r="B17" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="178" t="s">
+      <c r="C17" s="179" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="178"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="179"/>
+      <c r="D17" s="179"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="180"/>
       <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
@@ -7756,12 +7344,12 @@
       <c r="B18" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="178" t="s">
+      <c r="C18" s="179" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="178"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="179"/>
+      <c r="D18" s="179"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="180"/>
       <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
@@ -7786,23 +7374,23 @@
       <c r="A21" s="57">
         <v>2</v>
       </c>
-      <c r="B21" s="187" t="s">
+      <c r="B21" s="188" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="188" t="s">
+      <c r="C21" s="189" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="188"/>
+      <c r="D21" s="189"/>
       <c r="E21" s="55"/>
       <c r="F21" s="56"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="75"/>
-      <c r="B22" s="187"/>
-      <c r="C22" s="189" t="s">
+      <c r="B22" s="188"/>
+      <c r="C22" s="190" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="189"/>
+      <c r="D22" s="190"/>
       <c r="E22" s="55"/>
       <c r="F22" s="56"/>
     </row>
@@ -7827,48 +7415,48 @@
       <c r="B25" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="181" t="s">
+      <c r="C25" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="181"/>
-      <c r="E25" s="181"/>
-      <c r="F25" s="182"/>
+      <c r="D25" s="182"/>
+      <c r="E25" s="182"/>
+      <c r="F25" s="183"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A26" s="53"/>
       <c r="B26" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="178" t="s">
+      <c r="C26" s="179" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="178"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="179"/>
+      <c r="D26" s="179"/>
+      <c r="E26" s="179"/>
+      <c r="F26" s="180"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A27" s="53"/>
       <c r="B27" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="178" t="s">
+      <c r="C27" s="179" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="178"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="179"/>
+      <c r="D27" s="179"/>
+      <c r="E27" s="179"/>
+      <c r="F27" s="180"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="53"/>
       <c r="B28" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="178" t="s">
+      <c r="C28" s="179" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="178"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="179"/>
+      <c r="D28" s="179"/>
+      <c r="E28" s="179"/>
+      <c r="F28" s="180"/>
     </row>
     <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="53"/>
@@ -7898,10 +7486,10 @@
       <c r="A32" s="57">
         <v>3</v>
       </c>
-      <c r="B32" s="180" t="s">
+      <c r="B32" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="180"/>
+      <c r="C32" s="181"/>
       <c r="D32" s="76"/>
       <c r="E32" s="76"/>
       <c r="F32" s="77"/>
@@ -7935,36 +7523,36 @@
       <c r="B36" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="178" t="s">
+      <c r="C36" s="179" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="178"/>
-      <c r="E36" s="178"/>
-      <c r="F36" s="179"/>
+      <c r="D36" s="179"/>
+      <c r="E36" s="179"/>
+      <c r="F36" s="180"/>
     </row>
     <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A37" s="53"/>
       <c r="B37" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="178" t="s">
+      <c r="C37" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="178"/>
-      <c r="E37" s="178"/>
-      <c r="F37" s="179"/>
+      <c r="D37" s="179"/>
+      <c r="E37" s="179"/>
+      <c r="F37" s="180"/>
     </row>
     <row r="38" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A38" s="53"/>
       <c r="B38" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="178" t="s">
+      <c r="C38" s="179" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="178"/>
-      <c r="E38" s="178"/>
-      <c r="F38" s="179"/>
+      <c r="D38" s="179"/>
+      <c r="E38" s="179"/>
+      <c r="F38" s="180"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="84"/>
@@ -7999,4 +7587,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/api/opcua/ua-cherkassy-azot_test2/test-data/acmYearTemplate2.xlsx
+++ b/src/api/opcua/ua-cherkassy-azot_test2/test-data/acmYearTemplate2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="22830" windowHeight="8940" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="22830" windowHeight="8940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -1324,67 +1324,67 @@
     <t>Мiсяц</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
     <t>2022-01</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>#7</t>
+  </si>
+  <si>
+    <t>#8</t>
+  </si>
+  <si>
+    <t>#9</t>
+  </si>
+  <si>
+    <t>#10</t>
+  </si>
+  <si>
+    <t>#11</t>
+  </si>
+  <si>
+    <t>#12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>#13</t>
+  </si>
+  <si>
+    <t>#14</t>
+  </si>
+  <si>
+    <t>#15</t>
+  </si>
+  <si>
+    <t>#16</t>
+  </si>
+  <si>
+    <t>#17</t>
+  </si>
+  <si>
+    <t>#18</t>
+  </si>
+  <si>
+    <t>#19</t>
   </si>
 </sst>
 </file>
@@ -2850,6 +2850,72 @@
     <xf numFmtId="174" fontId="46" fillId="0" borderId="19" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2868,71 +2934,23 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="49" fillId="8" borderId="19" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="42" fillId="7" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="170" fontId="50" fillId="4" borderId="21" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2940,89 +2958,89 @@
     <xf numFmtId="170" fontId="50" fillId="4" borderId="43" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="43" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="49" fillId="4" borderId="19" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="49" fillId="4" borderId="44" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="7" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="49" fillId="8" borderId="19" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="50" fillId="4" borderId="21" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="50" fillId="4" borderId="43" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="43" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="61" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="61" fillId="9" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="62" fillId="9" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="49" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="7" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="49" fillId="8" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="49" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="49" fillId="8" borderId="19" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="50" fillId="4" borderId="21" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="50" fillId="4" borderId="43" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="43" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="43" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="4" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="9" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="23" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="49" fillId="8" borderId="19" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="49" fillId="4" borderId="19" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="49" fillId="4" borderId="44" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="22" fontId="42" fillId="7" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="9" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="28" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3031,27 +3049,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="23" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="28" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3059,6 +3056,9 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -4103,71 +4103,71 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
     </row>
     <row r="3" spans="1:12" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="142"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="125"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="130"/>
-      <c r="D4" s="143" t="s">
+      <c r="C4" s="127"/>
+      <c r="D4" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="145"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="130"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="146" t="s">
+      <c r="B5" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="147"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="147"/>
-      <c r="K5" s="147"/>
-      <c r="L5" s="148"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="133"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -4202,50 +4202,50 @@
       <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="139" t="s">
+      <c r="C8" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="139"/>
-      <c r="J8" s="139"/>
-      <c r="K8" s="139"/>
-      <c r="L8" s="139"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="121"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="128" t="s">
+      <c r="C9" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="128"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="134"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="134"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="128" t="s">
+      <c r="C10" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="128"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="134"/>
+      <c r="K10" s="134"/>
+      <c r="L10" s="134"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
@@ -4265,33 +4265,33 @@
       <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B12" s="129" t="s">
+      <c r="B12" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="130"/>
-      <c r="D12" s="131" t="s">
+      <c r="C12" s="127"/>
+      <c r="D12" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="132"/>
-      <c r="K12" s="132"/>
-      <c r="L12" s="133"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="136"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="137"/>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="B13" s="134"/>
-      <c r="C13" s="135"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="138"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="142"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
@@ -4299,131 +4299,131 @@
       <c r="A14" s="2">
         <v>4</v>
       </c>
-      <c r="B14" s="123" t="s">
+      <c r="B14" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="125"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="146"/>
+      <c r="K14" s="146"/>
+      <c r="L14" s="147"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="B15" s="126" t="s">
+      <c r="B15" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="126"/>
-      <c r="J15" s="126"/>
-      <c r="K15" s="126"/>
-      <c r="L15" s="126"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="148"/>
+      <c r="K15" s="148"/>
+      <c r="L15" s="148"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>5</v>
       </c>
-      <c r="B16" s="127" t="s">
+      <c r="B16" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="122"/>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="122"/>
-      <c r="K17" s="122"/>
-      <c r="L17" s="122"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="144"/>
+      <c r="L17" s="144"/>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="121" t="s">
+      <c r="D18" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="122"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="122"/>
-      <c r="K18" s="122"/>
-      <c r="L18" s="122"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="144"/>
+      <c r="K18" s="144"/>
+      <c r="L18" s="144"/>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="121" t="s">
+      <c r="D19" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="122"/>
-      <c r="L19" s="122"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="144"/>
+      <c r="K19" s="144"/>
+      <c r="L19" s="144"/>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="18"/>
-      <c r="D20" s="122" t="s">
+      <c r="D20" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="122"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="144"/>
+      <c r="K20" s="144"/>
+      <c r="L20" s="144"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="122" t="s">
+      <c r="D21" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="122"/>
-      <c r="K21" s="122"/>
-      <c r="L21" s="122"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="144"/>
+      <c r="K21" s="144"/>
+      <c r="L21" s="144"/>
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
@@ -5194,18 +5194,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I13:J13"/>
     <mergeCell ref="D19:L19"/>
     <mergeCell ref="D20:L20"/>
     <mergeCell ref="D21:L21"/>
@@ -5215,6 +5203,18 @@
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="I17:L17"/>
     <mergeCell ref="D18:L18"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="B5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="C22">
     <cfRule type="cellIs" dxfId="31" priority="1" operator="greaterThan">
@@ -5234,8 +5234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5261,48 +5261,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="168" t="s">
+      <c r="C1" s="149" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="169" t="s">
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="152" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="169"/>
+      <c r="I1" s="152"/>
       <c r="J1" s="88"/>
       <c r="K1" s="88"/>
       <c r="L1" s="88"/>
       <c r="M1" s="89"/>
       <c r="N1" s="89"/>
-      <c r="O1" s="177" t="s">
+      <c r="O1" s="153" t="s">
         <v>62</v>
       </c>
-      <c r="P1" s="177"/>
-      <c r="Q1" s="177"/>
-      <c r="R1" s="178" t="s">
+      <c r="P1" s="153"/>
+      <c r="Q1" s="153"/>
+      <c r="R1" s="154" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="178"/>
-      <c r="T1" s="178" t="s">
+      <c r="S1" s="154"/>
+      <c r="T1" s="154" t="s">
         <v>64</v>
       </c>
-      <c r="U1" s="178"/>
+      <c r="U1" s="154"/>
     </row>
     <row r="2" spans="3:21" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="C2" s="168" t="s">
+      <c r="C2" s="149" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="176" t="s">
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="150" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="176"/>
+      <c r="I2" s="150"/>
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
       <c r="L2" s="90"/>
@@ -5313,54 +5313,54 @@
       <c r="Q2" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="R2" s="170">
+      <c r="R2" s="151">
         <v>0.93520000000000003</v>
       </c>
-      <c r="S2" s="170"/>
-      <c r="T2" s="170">
+      <c r="S2" s="151"/>
+      <c r="T2" s="151">
         <v>1.1951000000000001</v>
       </c>
-      <c r="U2" s="170"/>
+      <c r="U2" s="151"/>
     </row>
     <row r="3" spans="3:21" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C3" s="168" t="s">
+      <c r="C3" s="149" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="169" t="s">
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="152" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
-      <c r="L3" s="169"/>
-      <c r="M3" s="169"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
       <c r="N3" s="93"/>
       <c r="O3" s="91"/>
       <c r="P3" s="94"/>
       <c r="Q3" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="R3" s="170">
+      <c r="R3" s="151">
         <v>0</v>
       </c>
-      <c r="S3" s="170"/>
-      <c r="T3" s="170">
+      <c r="S3" s="151"/>
+      <c r="T3" s="151">
         <v>0</v>
       </c>
-      <c r="U3" s="170"/>
+      <c r="U3" s="151"/>
     </row>
     <row r="5" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="154" t="s">
+      <c r="C5" s="161" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
       <c r="H5" s="91"/>
       <c r="I5" s="91"/>
       <c r="J5" s="91"/>
@@ -5371,56 +5371,56 @@
       </c>
       <c r="N5" s="91"/>
       <c r="O5" s="106"/>
-      <c r="P5" s="173" t="s">
+      <c r="P5" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="174"/>
-      <c r="R5" s="174"/>
-      <c r="S5" s="174"/>
-      <c r="T5" s="174"/>
-      <c r="U5" s="174"/>
+      <c r="Q5" s="163"/>
+      <c r="R5" s="163"/>
+      <c r="S5" s="163"/>
+      <c r="T5" s="163"/>
+      <c r="U5" s="163"/>
     </row>
     <row r="6" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="109"/>
       <c r="D6" s="91"/>
       <c r="E6" s="91"/>
-      <c r="F6" s="175" t="s">
+      <c r="F6" s="164" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="175"/>
-      <c r="H6" s="175" t="s">
+      <c r="G6" s="164"/>
+      <c r="H6" s="164" t="s">
         <v>87</v>
       </c>
-      <c r="I6" s="175"/>
+      <c r="I6" s="164"/>
       <c r="J6" s="91"/>
       <c r="K6" s="91"/>
       <c r="L6" s="91"/>
       <c r="M6" s="91"/>
       <c r="N6" s="91"/>
       <c r="O6" s="106"/>
-      <c r="P6" s="173" t="s">
+      <c r="P6" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="Q6" s="174"/>
-      <c r="R6" s="174"/>
-      <c r="S6" s="174"/>
-      <c r="T6" s="174"/>
-      <c r="U6" s="174"/>
+      <c r="Q6" s="163"/>
+      <c r="R6" s="163"/>
+      <c r="S6" s="163"/>
+      <c r="T6" s="163"/>
+      <c r="U6" s="163"/>
     </row>
     <row r="7" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C7" s="109"/>
       <c r="D7" s="91"/>
       <c r="E7" s="91"/>
-      <c r="F7" s="157">
+      <c r="F7" s="165">
         <f>SUM(I20:I8798)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="157"/>
-      <c r="H7" s="157">
+      <c r="G7" s="165"/>
+      <c r="H7" s="165">
         <f>SUM(K20:K8798)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="157"/>
+      <c r="I7" s="165"/>
       <c r="J7" s="91"/>
       <c r="K7" s="91"/>
       <c r="L7" s="91"/>
@@ -5429,14 +5429,14 @@
       <c r="O7" s="106">
         <v>1</v>
       </c>
-      <c r="P7" s="158" t="s">
+      <c r="P7" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="Q7" s="159"/>
-      <c r="R7" s="159"/>
-      <c r="S7" s="159"/>
-      <c r="T7" s="159"/>
-      <c r="U7" s="159"/>
+      <c r="Q7" s="167"/>
+      <c r="R7" s="167"/>
+      <c r="S7" s="167"/>
+      <c r="T7" s="167"/>
+      <c r="U7" s="167"/>
     </row>
     <row r="8" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" s="109"/>
@@ -5460,49 +5460,49 @@
       <c r="U8" s="110"/>
     </row>
     <row r="9" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="154" t="s">
+      <c r="C9" s="161" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="154"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="154"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
       <c r="H9" s="111"/>
       <c r="I9" s="91"/>
       <c r="J9" s="110"/>
-      <c r="K9" s="154" t="s">
+      <c r="K9" s="161" t="s">
         <v>89</v>
       </c>
-      <c r="L9" s="154"/>
-      <c r="M9" s="154"/>
+      <c r="L9" s="161"/>
+      <c r="M9" s="161"/>
       <c r="N9" s="91"/>
-      <c r="O9" s="154" t="s">
+      <c r="O9" s="161" t="s">
         <v>90</v>
       </c>
-      <c r="P9" s="154"/>
-      <c r="Q9" s="154"/>
-      <c r="R9" s="154"/>
-      <c r="S9" s="154"/>
-      <c r="T9" s="154"/>
-      <c r="U9" s="154"/>
+      <c r="P9" s="161"/>
+      <c r="Q9" s="161"/>
+      <c r="R9" s="161"/>
+      <c r="S9" s="161"/>
+      <c r="T9" s="161"/>
+      <c r="U9" s="161"/>
     </row>
     <row r="10" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C10" s="109"/>
       <c r="D10" s="91"/>
       <c r="E10" s="91"/>
-      <c r="F10" s="151" t="s">
+      <c r="F10" s="173" t="s">
         <v>91</v>
       </c>
-      <c r="G10" s="151"/>
-      <c r="H10" s="152" t="s">
+      <c r="G10" s="173"/>
+      <c r="H10" s="175" t="s">
         <v>92</v>
       </c>
-      <c r="I10" s="152"/>
+      <c r="I10" s="175"/>
       <c r="J10" s="110"/>
-      <c r="K10" s="151" t="s">
+      <c r="K10" s="173" t="s">
         <v>86</v>
       </c>
-      <c r="L10" s="151"/>
+      <c r="L10" s="173"/>
       <c r="M10" s="112" t="s">
         <v>93</v>
       </c>
@@ -5533,22 +5533,22 @@
       <c r="C11" s="109"/>
       <c r="D11" s="91"/>
       <c r="E11" s="91"/>
-      <c r="F11" s="153">
+      <c r="F11" s="176">
         <f>COUNTIF(O20:O8798,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="G11" s="153"/>
-      <c r="H11" s="153">
+      <c r="G11" s="176"/>
+      <c r="H11" s="176">
         <f>COUNTIF(R20:R8798,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="I11" s="153"/>
+      <c r="I11" s="176"/>
       <c r="J11" s="91"/>
-      <c r="K11" s="155">
+      <c r="K11" s="177">
         <f>COUNTIF($M20:$M8800,"СНВВ не працює")</f>
         <v>0</v>
       </c>
-      <c r="L11" s="156"/>
+      <c r="L11" s="178"/>
       <c r="M11" s="114">
         <f>COUNTIF($M20:$M8800,"агрегати не працюють")</f>
         <v>0</v>
@@ -5605,13 +5605,13 @@
       <c r="U12" s="110"/>
     </row>
     <row r="13" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="154" t="s">
+      <c r="C13" s="161" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="154"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154"/>
+      <c r="D13" s="161"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="161"/>
       <c r="H13" s="116"/>
       <c r="I13" s="116"/>
       <c r="J13" s="116"/>
@@ -5619,33 +5619,33 @@
       <c r="L13" s="91"/>
       <c r="M13" s="91"/>
       <c r="N13" s="91"/>
-      <c r="O13" s="154" t="s">
+      <c r="O13" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="154"/>
-      <c r="Q13" s="154"/>
-      <c r="R13" s="154"/>
-      <c r="S13" s="154"/>
-      <c r="T13" s="154"/>
-      <c r="U13" s="154"/>
+      <c r="P13" s="161"/>
+      <c r="Q13" s="161"/>
+      <c r="R13" s="161"/>
+      <c r="S13" s="161"/>
+      <c r="T13" s="161"/>
+      <c r="U13" s="161"/>
     </row>
     <row r="14" spans="3:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C14" s="109"/>
       <c r="D14" s="91"/>
       <c r="E14" s="91"/>
-      <c r="F14" s="151" t="s">
+      <c r="F14" s="173" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="151"/>
-      <c r="H14" s="167" t="s">
+      <c r="G14" s="173"/>
+      <c r="H14" s="174" t="s">
         <v>92</v>
       </c>
-      <c r="I14" s="167"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="151" t="s">
+      <c r="I14" s="174"/>
+      <c r="J14" s="174"/>
+      <c r="K14" s="173" t="s">
         <v>96</v>
       </c>
-      <c r="L14" s="151"/>
+      <c r="L14" s="173"/>
       <c r="M14" s="117" t="s">
         <v>97</v>
       </c>
@@ -5676,22 +5676,22 @@
       <c r="C15" s="109"/>
       <c r="D15" s="91"/>
       <c r="E15" s="91"/>
-      <c r="F15" s="153">
+      <c r="F15" s="176">
         <f>COUNTIF(F20:F8798,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="G15" s="153"/>
-      <c r="H15" s="153">
+      <c r="G15" s="176"/>
+      <c r="H15" s="176">
         <f>COUNTIF(H20:H8798,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="I15" s="153"/>
-      <c r="J15" s="153"/>
-      <c r="K15" s="153">
+      <c r="I15" s="176"/>
+      <c r="J15" s="176"/>
+      <c r="K15" s="176">
         <f>COUNTIF(J20:J8798,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="L15" s="153"/>
+      <c r="L15" s="176"/>
       <c r="M15" s="118">
         <f>COUNTIF(L20:L8798,"&gt;0")</f>
         <v>0</v>
@@ -5715,67 +5715,67 @@
       </c>
     </row>
     <row r="17" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="149" t="s">
+      <c r="B17" s="155" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="149" t="s">
+      <c r="C17" s="155" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="149" t="s">
+      <c r="D17" s="155" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="162" t="s">
+      <c r="E17" s="157" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="162" t="s">
+      <c r="F17" s="157" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="162" t="s">
+      <c r="G17" s="157" t="s">
         <v>75</v>
       </c>
-      <c r="H17" s="162" t="s">
+      <c r="H17" s="157" t="s">
         <v>74</v>
       </c>
-      <c r="I17" s="160" t="s">
+      <c r="I17" s="168" t="s">
         <v>76</v>
       </c>
-      <c r="J17" s="162" t="s">
+      <c r="J17" s="157" t="s">
         <v>74</v>
       </c>
-      <c r="K17" s="160" t="s">
+      <c r="K17" s="168" t="s">
         <v>77</v>
       </c>
-      <c r="L17" s="162" t="s">
+      <c r="L17" s="157" t="s">
         <v>74</v>
       </c>
-      <c r="M17" s="164" t="s">
+      <c r="M17" s="170" t="s">
         <v>78</v>
       </c>
-      <c r="O17" s="166" t="s">
+      <c r="O17" s="172" t="s">
         <v>79</v>
       </c>
-      <c r="P17" s="166"/>
-      <c r="Q17" s="166"/>
-      <c r="R17" s="171" t="s">
+      <c r="P17" s="172"/>
+      <c r="Q17" s="172"/>
+      <c r="R17" s="159" t="s">
         <v>80</v>
       </c>
-      <c r="S17" s="171"/>
-      <c r="T17" s="172"/>
+      <c r="S17" s="159"/>
+      <c r="T17" s="160"/>
       <c r="U17" s="102"/>
     </row>
     <row r="18" spans="2:21" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="150"/>
-      <c r="C18" s="150"/>
-      <c r="D18" s="150"/>
-      <c r="E18" s="163"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="161"/>
-      <c r="L18" s="163"/>
-      <c r="M18" s="165"/>
+      <c r="B18" s="156"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="169"/>
+      <c r="J18" s="158"/>
+      <c r="K18" s="169"/>
+      <c r="L18" s="158"/>
+      <c r="M18" s="171"/>
       <c r="O18" s="95" t="s">
         <v>82</v>
       </c>
@@ -5800,69 +5800,69 @@
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" s="98" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C19" s="98" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D19" s="98" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E19" s="98" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F19" s="98" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G19" s="98" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H19" s="98" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I19" s="98" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J19" s="98" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K19" s="98" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L19" s="98" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M19" s="98" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N19" s="99" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O19" s="100" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P19" s="100" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="100" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="R19" s="100" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S19" s="100" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="T19" s="100" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="U19" s="103" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="120" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C20" s="105">
         <v>44562</v>
@@ -5926,15 +5926,33 @@
   </sheetData>
   <autoFilter ref="B19:M19"/>
   <mergeCells count="52">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="O13:U13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="O9:U9"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="R3:S3"/>
@@ -5951,33 +5969,15 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="P6:U6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="O13:U13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="O9:U9"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <conditionalFormatting sqref="R2:R3 T2:T3">
     <cfRule type="containsBlanks" dxfId="30" priority="80">
@@ -7104,11 +7104,11 @@
       <c r="A2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
       <c r="E2" s="24" t="s">
         <v>21</v>
       </c>
@@ -7163,11 +7163,11 @@
       <c r="A5" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="185" t="s">
+      <c r="B5" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
       <c r="E5" s="34">
         <f>Data_CNBB!H7</f>
         <v>0</v>
@@ -7184,11 +7184,11 @@
       <c r="A6" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="186" t="s">
+      <c r="B6" s="183" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="186"/>
-      <c r="D6" s="186"/>
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
       <c r="E6" s="34">
         <f>Data_CNBB!$U$15/1000000000</f>
         <v>0</v>
@@ -7205,11 +7205,11 @@
       <c r="A7" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="186" t="s">
+      <c r="B7" s="183" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="186"/>
-      <c r="D7" s="186"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
       <c r="E7" s="38">
         <f>E6*298</f>
         <v>0</v>
@@ -7226,11 +7226,11 @@
       <c r="A8" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="187" t="s">
+      <c r="B8" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="187"/>
-      <c r="D8" s="187"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
       <c r="E8" s="40">
         <f>IFERROR(Data_CNBB!$U$15/1000000/E5, 0)</f>
         <v>0</v>
@@ -7318,12 +7318,12 @@
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="61"/>
       <c r="B16" s="64"/>
-      <c r="C16" s="179" t="s">
+      <c r="C16" s="185" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="179"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="180"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="186"/>
       <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
@@ -7331,12 +7331,12 @@
       <c r="B17" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="179" t="s">
+      <c r="C17" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="179"/>
-      <c r="E17" s="179"/>
-      <c r="F17" s="180"/>
+      <c r="D17" s="185"/>
+      <c r="E17" s="185"/>
+      <c r="F17" s="186"/>
       <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
@@ -7344,12 +7344,12 @@
       <c r="B18" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="179" t="s">
+      <c r="C18" s="185" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="179"/>
-      <c r="E18" s="179"/>
-      <c r="F18" s="180"/>
+      <c r="D18" s="185"/>
+      <c r="E18" s="185"/>
+      <c r="F18" s="186"/>
       <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
@@ -7374,23 +7374,23 @@
       <c r="A21" s="57">
         <v>2</v>
       </c>
-      <c r="B21" s="188" t="s">
+      <c r="B21" s="187" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="189" t="s">
+      <c r="C21" s="188" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="189"/>
+      <c r="D21" s="188"/>
       <c r="E21" s="55"/>
       <c r="F21" s="56"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="75"/>
-      <c r="B22" s="188"/>
-      <c r="C22" s="190" t="s">
+      <c r="B22" s="187"/>
+      <c r="C22" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="190"/>
+      <c r="D22" s="189"/>
       <c r="E22" s="55"/>
       <c r="F22" s="56"/>
     </row>
@@ -7415,48 +7415,48 @@
       <c r="B25" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="182" t="s">
+      <c r="C25" s="179" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="182"/>
-      <c r="E25" s="182"/>
-      <c r="F25" s="183"/>
+      <c r="D25" s="179"/>
+      <c r="E25" s="179"/>
+      <c r="F25" s="180"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A26" s="53"/>
       <c r="B26" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="179" t="s">
+      <c r="C26" s="185" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="179"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="180"/>
+      <c r="D26" s="185"/>
+      <c r="E26" s="185"/>
+      <c r="F26" s="186"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A27" s="53"/>
       <c r="B27" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="179" t="s">
+      <c r="C27" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="179"/>
-      <c r="E27" s="179"/>
-      <c r="F27" s="180"/>
+      <c r="D27" s="185"/>
+      <c r="E27" s="185"/>
+      <c r="F27" s="186"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="53"/>
       <c r="B28" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="179" t="s">
+      <c r="C28" s="185" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="179"/>
-      <c r="E28" s="179"/>
-      <c r="F28" s="180"/>
+      <c r="D28" s="185"/>
+      <c r="E28" s="185"/>
+      <c r="F28" s="186"/>
     </row>
     <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="53"/>
@@ -7486,10 +7486,10 @@
       <c r="A32" s="57">
         <v>3</v>
       </c>
-      <c r="B32" s="181" t="s">
+      <c r="B32" s="190" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="181"/>
+      <c r="C32" s="190"/>
       <c r="D32" s="76"/>
       <c r="E32" s="76"/>
       <c r="F32" s="77"/>
@@ -7523,36 +7523,36 @@
       <c r="B36" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="179" t="s">
+      <c r="C36" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="179"/>
-      <c r="E36" s="179"/>
-      <c r="F36" s="180"/>
+      <c r="D36" s="185"/>
+      <c r="E36" s="185"/>
+      <c r="F36" s="186"/>
     </row>
     <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A37" s="53"/>
       <c r="B37" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="179" t="s">
+      <c r="C37" s="185" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="179"/>
-      <c r="E37" s="179"/>
-      <c r="F37" s="180"/>
+      <c r="D37" s="185"/>
+      <c r="E37" s="185"/>
+      <c r="F37" s="186"/>
     </row>
     <row r="38" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A38" s="53"/>
       <c r="B38" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="179" t="s">
+      <c r="C38" s="185" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="179"/>
-      <c r="E38" s="179"/>
-      <c r="F38" s="180"/>
+      <c r="D38" s="185"/>
+      <c r="E38" s="185"/>
+      <c r="F38" s="186"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="84"/>
@@ -7564,6 +7564,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B5:D5"/>
@@ -7576,13 +7583,6 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7593,7 +7593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
